--- a/BackTest/2019-10-08 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-08 BackTest HDAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.800000000000004</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-11.11111111111085</v>
+      </c>
       <c r="L12" t="n">
         <v>36.82000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.800000000000004</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-17.64705882352921</v>
+      </c>
       <c r="L13" t="n">
         <v>36.8</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.800000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-17.64705882352921</v>
+      </c>
       <c r="L14" t="n">
         <v>36.77</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>2.100000000000009</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-29.99999999999996</v>
+      </c>
       <c r="L15" t="n">
         <v>36.71</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>2.400000000000013</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-13.04347826086938</v>
+      </c>
       <c r="L16" t="n">
         <v>36.68</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>2.400000000000013</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-13.04347826086938</v>
+      </c>
       <c r="L17" t="n">
         <v>36.65</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>29.41176470588231</v>
+      </c>
       <c r="L18" t="n">
         <v>36.63</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>36.68</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333281</v>
+      </c>
       <c r="L20" t="n">
         <v>36.68</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>2.500000000000007</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>14.28571428571342</v>
+      </c>
       <c r="L21" t="n">
         <v>36.71</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.700000000000003</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-11.11111111111129</v>
+      </c>
       <c r="L22" t="n">
         <v>36.7</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.11111111111099</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L23" t="n">
         <v>36.69000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K24" t="n">
-        <v>-15.38461538461532</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L24" t="n">
         <v>36.68000000000001</v>
@@ -1515,7 +1537,7 @@
         <v>2.800000000000004</v>
       </c>
       <c r="K25" t="n">
-        <v>-11.11111111111099</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>36.71000000000002</v>
@@ -1564,7 +1586,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K26" t="n">
-        <v>-14.28571428571421</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L26" t="n">
         <v>36.70000000000002</v>
@@ -1613,7 +1635,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K27" t="n">
-        <v>-14.28571428571421</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L27" t="n">
         <v>36.69000000000002</v>
@@ -1662,7 +1684,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K28" t="n">
-        <v>-14.28571428571421</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L28" t="n">
         <v>36.67000000000002</v>
@@ -1711,7 +1733,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K29" t="n">
-        <v>14.28571428571448</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L29" t="n">
         <v>36.65000000000002</v>
@@ -1760,7 +1782,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K30" t="n">
-        <v>-17.64705882352921</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L30" t="n">
         <v>36.62000000000002</v>
@@ -1809,7 +1831,7 @@
         <v>3.20000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-12.50000000000011</v>
+        <v>-60</v>
       </c>
       <c r="L31" t="n">
         <v>36.57000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>3.20000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-28.57142857142886</v>
+        <v>-60</v>
       </c>
       <c r="L32" t="n">
         <v>36.54000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>3.20000000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-28.57142857142886</v>
+        <v>-60</v>
       </c>
       <c r="L33" t="n">
         <v>36.51000000000002</v>
@@ -1962,7 +1984,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K34" t="n">
-        <v>-47.36842105263174</v>
+        <v>-100</v>
       </c>
       <c r="L34" t="n">
         <v>36.43000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K35" t="n">
-        <v>-44.44444444444436</v>
+        <v>-100</v>
       </c>
       <c r="L35" t="n">
         <v>36.32000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K36" t="n">
-        <v>-73.33333333333377</v>
+        <v>-100</v>
       </c>
       <c r="L36" t="n">
         <v>36.22000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K37" t="n">
-        <v>-75.00000000000044</v>
+        <v>-100</v>
       </c>
       <c r="L37" t="n">
         <v>36.11000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K38" t="n">
-        <v>-86.66666666666649</v>
+        <v>-100</v>
       </c>
       <c r="L38" t="n">
         <v>36.00000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K39" t="n">
-        <v>-39.99999999999986</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>35.94000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K40" t="n">
-        <v>-47.82608695652155</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L40" t="n">
         <v>35.86000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K41" t="n">
-        <v>-47.82608695652155</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L41" t="n">
         <v>35.80000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K42" t="n">
-        <v>-42.85714285714276</v>
+        <v>-37.49999999999978</v>
       </c>
       <c r="L42" t="n">
         <v>35.74000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>-30.43478260869582</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L43" t="n">
         <v>35.7</v>
@@ -2472,7 +2494,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>-25.00000000000007</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>35.72000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K45" t="n">
-        <v>-30.43478260869582</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>35.76000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-27.27272727272739</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L46" t="n">
         <v>35.8</v>
@@ -2625,7 +2647,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K47" t="n">
-        <v>-30.43478260869582</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L47" t="n">
         <v>35.84</v>
@@ -2676,7 +2698,7 @@
         <v>5.5</v>
       </c>
       <c r="K48" t="n">
-        <v>-38.46153846153855</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L48" t="n">
         <v>35.85</v>
@@ -2727,7 +2749,7 @@
         <v>5.5</v>
       </c>
       <c r="K49" t="n">
-        <v>-38.46153846153855</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L49" t="n">
         <v>35.81</v>
@@ -2778,7 +2800,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>-30.76923076923073</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>35.81</v>
@@ -2829,7 +2851,7 @@
         <v>5.600000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>-24.99999999999985</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>35.81</v>
@@ -2880,7 +2902,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>-11.11111111111105</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L52" t="n">
         <v>35.84</v>
@@ -2931,7 +2953,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>-11.11111111111105</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>35.85000000000001</v>
@@ -2982,7 +3004,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>35.85000000000001</v>
@@ -3033,7 +3055,7 @@
         <v>5.899999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>35.85000000000001</v>
@@ -3084,7 +3106,7 @@
         <v>6.299999999999997</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L56" t="n">
         <v>35.81000000000001</v>
@@ -3135,7 +3157,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L57" t="n">
         <v>35.77000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>6.399999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L58" t="n">
         <v>35.76000000000001</v>
@@ -3237,7 +3259,7 @@
         <v>6.5</v>
       </c>
       <c r="K59" t="n">
-        <v>-20</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L59" t="n">
         <v>35.76000000000001</v>
@@ -3288,7 +3310,7 @@
         <v>6.5</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.882352941176569</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L60" t="n">
         <v>35.75000000000001</v>
@@ -3339,7 +3361,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="K61" t="n">
-        <v>9.999999999999822</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L61" t="n">
         <v>35.77000000000001</v>
@@ -3390,7 +3412,7 @@
         <v>7.099999999999994</v>
       </c>
       <c r="K62" t="n">
-        <v>-4.347826086956602</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>35.73000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>7.399999999999991</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L63" t="n">
         <v>35.72000000000001</v>
@@ -3492,7 +3514,7 @@
         <v>7.399999999999991</v>
       </c>
       <c r="K64" t="n">
-        <v>-4.347826086956602</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L64" t="n">
         <v>35.71000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>7.399999999999991</v>
       </c>
       <c r="K65" t="n">
-        <v>-4.347826086956602</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L65" t="n">
         <v>35.7</v>
@@ -3594,7 +3616,7 @@
         <v>7.499999999999993</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L66" t="n">
         <v>35.74</v>
@@ -3645,7 +3667,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K67" t="n">
-        <v>18.51851851851859</v>
+        <v>60.00000000000018</v>
       </c>
       <c r="L67" t="n">
         <v>35.83</v>
@@ -3696,7 +3718,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L68" t="n">
         <v>35.92</v>
@@ -3747,7 +3769,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K69" t="n">
-        <v>33.33333333333333</v>
+        <v>57.14285714285728</v>
       </c>
       <c r="L69" t="n">
         <v>35.99999999999999</v>
@@ -3798,7 +3820,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K70" t="n">
-        <v>30.4347826086956</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L70" t="n">
         <v>36.07999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>7.899999999999991</v>
       </c>
       <c r="K71" t="n">
-        <v>30.4347826086956</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>36.12999999999999</v>
@@ -3900,7 +3922,7 @@
         <v>7.999999999999993</v>
       </c>
       <c r="K72" t="n">
-        <v>23.80952380952387</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>36.21999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K73" t="n">
-        <v>18.18181818181815</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L73" t="n">
         <v>36.26999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>8.099999999999994</v>
       </c>
       <c r="K74" t="n">
-        <v>18.18181818181815</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L74" t="n">
         <v>36.31999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>8.29999999999999</v>
       </c>
       <c r="K75" t="n">
-        <v>8.333333333333481</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L75" t="n">
         <v>36.34999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>8.399999999999991</v>
       </c>
       <c r="K76" t="n">
-        <v>23.80952380952387</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L76" t="n">
         <v>36.35999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K77" t="n">
-        <v>33.33333333333356</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L77" t="n">
         <v>36.33999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K78" t="n">
-        <v>33.33333333333356</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L78" t="n">
         <v>36.31999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>8.499999999999993</v>
       </c>
       <c r="K79" t="n">
-        <v>30.00000000000018</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L79" t="n">
         <v>36.3</v>
@@ -4308,7 +4330,7 @@
         <v>8.599999999999994</v>
       </c>
       <c r="K80" t="n">
-        <v>23.80952380952387</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L80" t="n">
         <v>36.27</v>
@@ -4359,7 +4381,7 @@
         <v>8.599999999999994</v>
       </c>
       <c r="K81" t="n">
-        <v>11.11111111111129</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L81" t="n">
         <v>36.24</v>
@@ -4410,7 +4432,7 @@
         <v>8.699999999999996</v>
       </c>
       <c r="K82" t="n">
-        <v>37.50000000000006</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L82" t="n">
         <v>36.21</v>
@@ -4461,7 +4483,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K83" t="n">
-        <v>14.28571428571443</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L83" t="n">
         <v>36.18000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K84" t="n">
-        <v>14.28571428571443</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>36.15000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K85" t="n">
-        <v>14.28571428571443</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>36.14000000000001</v>
@@ -4614,7 +4636,7 @@
         <v>8.799999999999997</v>
       </c>
       <c r="K86" t="n">
-        <v>7.692307692307776</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>36.14000000000001</v>
@@ -4665,7 +4687,7 @@
         <v>8.899999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>-19.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>36.14000000000001</v>
@@ -4716,7 +4738,7 @@
         <v>8.899999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>-19.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>36.14000000000001</v>
@@ -4767,7 +4789,7 @@
         <v>8.899999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>-19.99999999999943</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>36.14000000000001</v>
@@ -4818,7 +4840,7 @@
         <v>8.999999999999993</v>
       </c>
       <c r="K90" t="n">
-        <v>-9.090909090909207</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L90" t="n">
         <v>36.16000000000001</v>
@@ -4869,7 +4891,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L91" t="n">
         <v>36.19000000000001</v>
@@ -4920,7 +4942,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L92" t="n">
         <v>36.21000000000001</v>
@@ -4971,7 +4993,7 @@
         <v>9.099999999999994</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L93" t="n">
         <v>36.24</v>
@@ -5022,7 +5044,7 @@
         <v>9.199999999999996</v>
       </c>
       <c r="K94" t="n">
-        <v>9.090909090909207</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>36.28</v>
@@ -5073,7 +5095,7 @@
         <v>9.299999999999997</v>
       </c>
       <c r="K95" t="n">
-        <v>19.99999999999943</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L95" t="n">
         <v>36.31</v>
@@ -5124,7 +5146,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>39.99999999999957</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L96" t="n">
         <v>36.34999999999999</v>
@@ -5175,7 +5197,7 @@
         <v>9.399999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>33.33333333333281</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L97" t="n">
         <v>36.38</v>
@@ -5226,7 +5248,7 @@
         <v>9.5</v>
       </c>
       <c r="K98" t="n">
-        <v>19.99999999999943</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L98" t="n">
         <v>36.39999999999999</v>
@@ -5277,7 +5299,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>27.2727272727268</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>36.42999999999999</v>
@@ -5328,7 +5350,7 @@
         <v>9.600000000000001</v>
       </c>
       <c r="K100" t="n">
-        <v>39.99999999999957</v>
+        <v>20</v>
       </c>
       <c r="L100" t="n">
         <v>36.45</v>
@@ -5379,7 +5401,7 @@
         <v>9.899999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>53.84615384615334</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L101" t="n">
         <v>36.48999999999999</v>
@@ -5430,7 +5452,7 @@
         <v>9.999999999999993</v>
       </c>
       <c r="K102" t="n">
-        <v>38.46153846153855</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L102" t="n">
         <v>36.52</v>
@@ -5481,7 +5503,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>53.84615384615393</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>36.56</v>
@@ -5532,7 +5554,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K104" t="n">
-        <v>25.00000000000011</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L104" t="n">
         <v>36.56</v>
@@ -5583,7 +5605,7 @@
         <v>10.39999999999998</v>
       </c>
       <c r="K105" t="n">
-        <v>25.00000000000011</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>36.57000000000001</v>
@@ -5634,7 +5656,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>17.64705882352936</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L106" t="n">
         <v>36.56</v>
@@ -5685,7 +5707,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>17.64705882352936</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L107" t="n">
         <v>36.56</v>
@@ -5736,7 +5758,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K108" t="n">
-        <v>17.64705882352936</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>36.57000000000001</v>
@@ -5787,7 +5809,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>17.64705882352936</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>36.57000000000001</v>
@@ -5838,7 +5860,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>12.50000000000022</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L110" t="n">
         <v>36.57000000000001</v>
@@ -5889,7 +5911,7 @@
         <v>10.69999999999999</v>
       </c>
       <c r="K111" t="n">
-        <v>12.50000000000022</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L111" t="n">
         <v>36.55</v>
@@ -5940,7 +5962,7 @@
         <v>10.69999999999999</v>
       </c>
       <c r="K112" t="n">
-        <v>12.50000000000022</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L112" t="n">
         <v>36.54000000000001</v>
@@ -5991,7 +6013,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>36.51000000000001</v>
@@ -6042,7 +6064,7 @@
         <v>10.89999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>-5.882352941176569</v>
+        <v>-20</v>
       </c>
       <c r="L114" t="n">
         <v>36.50000000000001</v>
@@ -6093,7 +6115,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L115" t="n">
         <v>36.47000000000001</v>
@@ -6144,7 +6166,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K116" t="n">
-        <v>-17.64705882352936</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L116" t="n">
         <v>36.45</v>
@@ -6195,7 +6217,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K117" t="n">
-        <v>-17.64705882352936</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L117" t="n">
         <v>36.42</v>
@@ -6246,7 +6268,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L118" t="n">
         <v>36.41</v>
@@ -6297,7 +6319,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K119" t="n">
-        <v>-5.882352941176618</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L119" t="n">
         <v>36.4</v>
@@ -6348,7 +6370,7 @@
         <v>11.29999999999998</v>
       </c>
       <c r="K120" t="n">
-        <v>-5.882352941176618</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L120" t="n">
         <v>36.39</v>
@@ -6399,7 +6421,7 @@
         <v>11.39999999999998</v>
       </c>
       <c r="K121" t="n">
-        <v>-20</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L121" t="n">
         <v>36.38</v>
@@ -6450,7 +6472,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>-6.666666666666793</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L122" t="n">
         <v>36.38</v>
@@ -6501,7 +6523,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>-6.666666666666288</v>
+        <v>42.85714285714373</v>
       </c>
       <c r="L123" t="n">
         <v>36.39999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K124" t="n">
-        <v>16.66666666666686</v>
+        <v>100</v>
       </c>
       <c r="L124" t="n">
         <v>36.42999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K125" t="n">
-        <v>16.66666666666686</v>
+        <v>100</v>
       </c>
       <c r="L125" t="n">
         <v>36.48</v>
@@ -6654,7 +6676,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K126" t="n">
-        <v>27.27272727272763</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>36.52999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>11.79999999999998</v>
       </c>
       <c r="K127" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L127" t="n">
         <v>36.59999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>11.89999999999998</v>
       </c>
       <c r="K128" t="n">
-        <v>23.07692307692291</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L128" t="n">
         <v>36.64</v>
@@ -6807,7 +6829,7 @@
         <v>11.99999999999999</v>
       </c>
       <c r="K129" t="n">
-        <v>28.5714285714285</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L129" t="n">
         <v>36.69</v>
@@ -6858,7 +6880,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>33.33333333333333</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L130" t="n">
         <v>36.75</v>
@@ -6909,7 +6931,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>28.5714285714285</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L131" t="n">
         <v>36.8</v>
@@ -6960,7 +6982,7 @@
         <v>12.89999999999998</v>
       </c>
       <c r="K132" t="n">
-        <v>54.54545454545445</v>
+        <v>84.61538461538436</v>
       </c>
       <c r="L132" t="n">
         <v>36.92</v>
@@ -7011,7 +7033,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>63.63636363636369</v>
+        <v>85.7142857142855</v>
       </c>
       <c r="L133" t="n">
         <v>37.04</v>
@@ -7062,7 +7084,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>63.63636363636369</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="L134" t="n">
         <v>37.15</v>
@@ -7113,7 +7135,7 @@
         <v>13.29999999999998</v>
       </c>
       <c r="K135" t="n">
-        <v>63.63636363636369</v>
+        <v>52.94117647058828</v>
       </c>
       <c r="L135" t="n">
         <v>37.24</v>
@@ -7164,7 +7186,7 @@
         <v>13.39999999999998</v>
       </c>
       <c r="K136" t="n">
-        <v>56.52173913043473</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L136" t="n">
         <v>37.32000000000001</v>
@@ -7215,7 +7237,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>49.99999999999985</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L137" t="n">
         <v>37.37</v>
@@ -7266,7 +7288,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>45.4545454545454</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>37.43</v>
@@ -7317,7 +7339,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>52.00000000000002</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L139" t="n">
         <v>37.51000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>55.5555555555555</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L140" t="n">
         <v>37.6</v>
@@ -7419,7 +7441,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>61.29032258064508</v>
+        <v>37.50000000000006</v>
       </c>
       <c r="L141" t="n">
         <v>37.73999999999999</v>
@@ -7470,7 +7492,7 @@
         <v>14.69999999999998</v>
       </c>
       <c r="K142" t="n">
-        <v>50.00000000000011</v>
+        <v>17.64705882352971</v>
       </c>
       <c r="L142" t="n">
         <v>37.77999999999999</v>
@@ -7521,7 +7543,7 @@
         <v>14.69999999999998</v>
       </c>
       <c r="K143" t="n">
-        <v>48.38709677419364</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L143" t="n">
         <v>37.81</v>
@@ -7572,7 +7594,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>39.39393939393934</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L144" t="n">
         <v>37.83</v>
@@ -7623,7 +7645,7 @@
         <v>14.89999999999998</v>
       </c>
       <c r="K145" t="n">
-        <v>39.39393939393934</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L145" t="n">
         <v>37.86999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>14.99999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>35.29411764705871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>37.90999999999999</v>
@@ -7725,7 +7747,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>27.27272727272719</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L147" t="n">
         <v>37.95</v>
@@ -7776,7 +7798,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>31.24999999999997</v>
+        <v>7.692307692307272</v>
       </c>
       <c r="L148" t="n">
         <v>37.98999999999999</v>
@@ -7827,7 +7849,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K149" t="n">
-        <v>25.00000000000017</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L149" t="n">
         <v>37.98999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>15.19999999999998</v>
       </c>
       <c r="K150" t="n">
-        <v>22.58064516129046</v>
+        <v>-100</v>
       </c>
       <c r="L150" t="n">
         <v>37.97</v>
@@ -7929,7 +7951,7 @@
         <v>15.29999999999998</v>
       </c>
       <c r="K151" t="n">
-        <v>25</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L151" t="n">
         <v>37.91</v>
@@ -7980,7 +8002,7 @@
         <v>15.29999999999998</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L152" t="n">
         <v>37.87</v>
@@ -8031,7 +8053,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K153" t="n">
-        <v>4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>37.85000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>15.59999999999998</v>
       </c>
       <c r="K154" t="n">
-        <v>12.0000000000002</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L154" t="n">
         <v>37.86000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>15.89999999999998</v>
       </c>
       <c r="K155" t="n">
-        <v>30.76923076923073</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L155" t="n">
         <v>37.90000000000001</v>
@@ -8184,7 +8206,7 @@
         <v>15.99999999999998</v>
       </c>
       <c r="K156" t="n">
-        <v>30.76923076923073</v>
+        <v>55.55555555555608</v>
       </c>
       <c r="L156" t="n">
         <v>37.94000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>16.09999999999997</v>
       </c>
       <c r="K157" t="n">
-        <v>30.76923076923108</v>
+        <v>40.00000000000114</v>
       </c>
       <c r="L157" t="n">
         <v>37.98</v>
@@ -8286,7 +8308,7 @@
         <v>16.19999999999997</v>
       </c>
       <c r="K158" t="n">
-        <v>33.33333333333351</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L158" t="n">
         <v>38.03000000000001</v>
@@ -8337,7 +8359,7 @@
         <v>16.29999999999997</v>
       </c>
       <c r="K159" t="n">
-        <v>28.00000000000007</v>
+        <v>63.63636363636399</v>
       </c>
       <c r="L159" t="n">
         <v>38.10000000000001</v>
@@ -8388,7 +8410,7 @@
         <v>16.39999999999997</v>
       </c>
       <c r="K160" t="n">
-        <v>25.00000000000022</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L160" t="n">
         <v>38.18000000000001</v>
@@ -8439,7 +8461,7 @@
         <v>16.49999999999997</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L161" t="n">
         <v>38.24</v>
@@ -8490,7 +8512,7 @@
         <v>16.59999999999997</v>
       </c>
       <c r="K162" t="n">
-        <v>15.78947368421045</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L162" t="n">
         <v>38.31</v>
@@ -8541,7 +8563,7 @@
         <v>16.69999999999997</v>
       </c>
       <c r="K163" t="n">
-        <v>9.999999999999822</v>
+        <v>27.27272727272715</v>
       </c>
       <c r="L163" t="n">
         <v>38.35</v>
@@ -8592,7 +8614,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>15.78947368421045</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L164" t="n">
         <v>38.37</v>
@@ -8643,7 +8665,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>15.78947368421045</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>38.36</v>
@@ -8694,7 +8716,7 @@
         <v>16.99999999999997</v>
       </c>
       <c r="K166" t="n">
-        <v>10.00000000000021</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L166" t="n">
         <v>38.34</v>
@@ -8745,7 +8767,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K167" t="n">
-        <v>20.00000000000043</v>
+        <v>-11.11111111111041</v>
       </c>
       <c r="L167" t="n">
         <v>38.34</v>
@@ -8796,7 +8818,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K168" t="n">
-        <v>20.00000000000043</v>
+        <v>-24.99999999999933</v>
       </c>
       <c r="L168" t="n">
         <v>38.33</v>
@@ -8847,7 +8869,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K169" t="n">
-        <v>26.31578947368433</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L169" t="n">
         <v>38.31</v>
@@ -8898,7 +8920,7 @@
         <v>17.09999999999997</v>
       </c>
       <c r="K170" t="n">
-        <v>26.31578947368433</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L170" t="n">
         <v>38.28</v>
@@ -8949,7 +8971,7 @@
         <v>17.19999999999997</v>
       </c>
       <c r="K171" t="n">
-        <v>26.31578947368433</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L171" t="n">
         <v>38.27</v>
@@ -9000,7 +9022,7 @@
         <v>17.39999999999996</v>
       </c>
       <c r="K172" t="n">
-        <v>14.28571428571458</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L172" t="n">
         <v>38.23</v>
@@ -9051,7 +9073,7 @@
         <v>17.39999999999996</v>
       </c>
       <c r="K173" t="n">
-        <v>5.263157894736961</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>38.20000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>17.39999999999996</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>38.18000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>17.49999999999996</v>
       </c>
       <c r="K175" t="n">
-        <v>-12.49999999999983</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L175" t="n">
         <v>38.17000000000001</v>
@@ -9204,7 +9226,7 @@
         <v>17.49999999999996</v>
       </c>
       <c r="K176" t="n">
-        <v>-6.666666666666352</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>38.18000000000001</v>
@@ -9306,7 +9328,7 @@
         <v>17.49999999999996</v>
       </c>
       <c r="K178" t="n">
-        <v>-7.692307692307272</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>38.18000000000001</v>
@@ -9357,7 +9379,7 @@
         <v>17.59999999999997</v>
       </c>
       <c r="K179" t="n">
-        <v>-23.07692307692291</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L179" t="n">
         <v>38.17000000000001</v>
@@ -9408,7 +9430,7 @@
         <v>17.89999999999997</v>
       </c>
       <c r="K180" t="n">
-        <v>-46.66666666666686</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L180" t="n">
         <v>38.13000000000001</v>
@@ -9459,7 +9481,7 @@
         <v>17.89999999999997</v>
       </c>
       <c r="K181" t="n">
-        <v>-42.857142857143</v>
+        <v>-60</v>
       </c>
       <c r="L181" t="n">
         <v>38.08000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>18.09999999999997</v>
       </c>
       <c r="K182" t="n">
-        <v>-33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L182" t="n">
         <v>38.07000000000001</v>
@@ -9561,7 +9583,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K183" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L183" t="n">
         <v>38.05</v>
@@ -9612,7 +9634,7 @@
         <v>18.19999999999997</v>
       </c>
       <c r="K184" t="n">
-        <v>-28.5714285714285</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L184" t="n">
         <v>38.03</v>
@@ -9663,7 +9685,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L185" t="n">
         <v>37.99</v>
@@ -9714,7 +9736,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>-23.07692307692333</v>
+        <v>-50</v>
       </c>
       <c r="L186" t="n">
         <v>37.95</v>
@@ -9765,7 +9787,7 @@
         <v>18.29999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>-33.33333333333373</v>
+        <v>-50</v>
       </c>
       <c r="L187" t="n">
         <v>37.91000000000001</v>
@@ -9816,7 +9838,7 @@
         <v>18.39999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>-23.07692307692333</v>
+        <v>-25</v>
       </c>
       <c r="L188" t="n">
         <v>37.88000000000001</v>
@@ -9867,7 +9889,7 @@
         <v>18.49999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>-28.57142857142886</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>37.85000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>18.69999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>-12.50000000000011</v>
+        <v>25</v>
       </c>
       <c r="L190" t="n">
         <v>37.87</v>
@@ -9969,7 +9991,7 @@
         <v>18.69999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>-19.99999999999962</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>37.89</v>
@@ -10020,7 +10042,7 @@
         <v>18.69999999999998</v>
       </c>
       <c r="K192" t="n">
-        <v>-7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L192" t="n">
         <v>37.89</v>
@@ -10071,7 +10093,7 @@
         <v>18.99999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>12.49999999999961</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L193" t="n">
         <v>37.93000000000001</v>
@@ -10122,7 +10144,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L194" t="n">
         <v>37.95000000000001</v>
@@ -10173,7 +10195,7 @@
         <v>19.39999999999997</v>
       </c>
       <c r="K195" t="n">
-        <v>5.263157894736527</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L195" t="n">
         <v>38.00000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>19.49999999999997</v>
       </c>
       <c r="K196" t="n">
-        <v>9.999999999999751</v>
+        <v>50.0000000000003</v>
       </c>
       <c r="L196" t="n">
         <v>38.06000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>19.49999999999997</v>
       </c>
       <c r="K197" t="n">
-        <v>9.999999999999751</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L197" t="n">
         <v>38.12</v>
@@ -10326,7 +10348,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K198" t="n">
-        <v>4.761904761904471</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L198" t="n">
         <v>38.16000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>19.79999999999997</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L199" t="n">
         <v>38.19000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>19.89999999999997</v>
       </c>
       <c r="K200" t="n">
-        <v>10.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>38.19000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K201" t="n">
-        <v>21.73913043478263</v>
+        <v>20</v>
       </c>
       <c r="L201" t="n">
         <v>38.22000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>20.39999999999996</v>
       </c>
       <c r="K202" t="n">
-        <v>4.347826086956602</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L202" t="n">
         <v>38.23000000000001</v>
@@ -10581,7 +10603,7 @@
         <v>20.39999999999996</v>
       </c>
       <c r="K203" t="n">
-        <v>9.090909090909268</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>38.21000000000002</v>
@@ -10632,7 +10654,7 @@
         <v>20.49999999999996</v>
       </c>
       <c r="K204" t="n">
-        <v>13.04347826086981</v>
+        <v>-9.090909090908621</v>
       </c>
       <c r="L204" t="n">
         <v>38.22000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>20.59999999999997</v>
       </c>
       <c r="K205" t="n">
-        <v>13.04347826086981</v>
+        <v>-27.27272727272715</v>
       </c>
       <c r="L205" t="n">
         <v>38.20000000000001</v>
@@ -10734,7 +10756,7 @@
         <v>20.89999999999996</v>
       </c>
       <c r="K206" t="n">
-        <v>23.07692307692324</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>38.20000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>20.89999999999996</v>
       </c>
       <c r="K207" t="n">
-        <v>23.07692307692324</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L207" t="n">
         <v>38.20000000000001</v>
@@ -10836,7 +10858,7 @@
         <v>20.99999999999996</v>
       </c>
       <c r="K208" t="n">
-        <v>23.07692307692324</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L208" t="n">
         <v>38.22000000000001</v>
@@ -10887,7 +10909,7 @@
         <v>21.39999999999996</v>
       </c>
       <c r="K209" t="n">
-        <v>10.3448275862071</v>
+        <v>6.666666666666793</v>
       </c>
       <c r="L209" t="n">
         <v>38.22000000000001</v>
@@ -10938,7 +10960,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-3.448275862069033</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L210" t="n">
         <v>38.21000000000001</v>
@@ -10989,7 +11011,7 @@
         <v>21.79999999999996</v>
       </c>
       <c r="K211" t="n">
-        <v>-9.67741935483868</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L211" t="n">
         <v>38.15000000000001</v>
@@ -11040,7 +11062,7 @@
         <v>22.09999999999996</v>
       </c>
       <c r="K212" t="n">
-        <v>0</v>
+        <v>-5.882352941176569</v>
       </c>
       <c r="L212" t="n">
         <v>38.14</v>
@@ -11091,7 +11113,7 @@
         <v>22.29999999999996</v>
       </c>
       <c r="K213" t="n">
-        <v>-15.15151515151523</v>
+        <v>-22.22222222222257</v>
       </c>
       <c r="L213" t="n">
         <v>38.11</v>
@@ -11193,7 +11215,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>-9.090909090909012</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L215" t="n">
         <v>38.09</v>
@@ -11244,7 +11266,7 @@
         <v>22.69999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>-12.49999999999997</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L216" t="n">
         <v>38.05</v>
@@ -11295,7 +11317,7 @@
         <v>22.79999999999997</v>
       </c>
       <c r="K217" t="n">
-        <v>-9.090909090909012</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="L217" t="n">
         <v>38.02000000000001</v>
@@ -11346,7 +11368,7 @@
         <v>22.89999999999997</v>
       </c>
       <c r="K218" t="n">
-        <v>-9.090909090909012</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L218" t="n">
         <v>37.97000000000001</v>
@@ -11397,7 +11419,7 @@
         <v>22.89999999999997</v>
       </c>
       <c r="K219" t="n">
-        <v>-3.225806451612947</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L219" t="n">
         <v>37.96000000000001</v>
@@ -11448,7 +11470,7 @@
         <v>22.89999999999997</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>27.2727272727268</v>
       </c>
       <c r="L220" t="n">
         <v>37.97000000000001</v>
@@ -11499,7 +11521,7 @@
         <v>23.19999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>-19.99999999999981</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L221" t="n">
         <v>37.97000000000001</v>
@@ -11550,7 +11572,7 @@
         <v>23.39999999999997</v>
       </c>
       <c r="K222" t="n">
-        <v>-20</v>
+        <v>-27.2727272727268</v>
       </c>
       <c r="L222" t="n">
         <v>37.92000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>23.69999999999997</v>
       </c>
       <c r="K223" t="n">
-        <v>-9.090909090909207</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L223" t="n">
         <v>37.92000000000001</v>
@@ -11652,7 +11674,7 @@
         <v>23.69999999999997</v>
       </c>
       <c r="K224" t="n">
-        <v>-12.50000000000017</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L224" t="n">
         <v>37.89000000000001</v>
@@ -11703,7 +11725,7 @@
         <v>23.89999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>-3.03030303030307</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>37.89000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>24.19999999999997</v>
       </c>
       <c r="K226" t="n">
-        <v>-21.21212121212105</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L226" t="n">
         <v>37.86000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>24.39999999999996</v>
       </c>
       <c r="K227" t="n">
-        <v>-14.28571428571428</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L227" t="n">
         <v>37.84</v>
@@ -11856,7 +11878,7 @@
         <v>24.39999999999996</v>
       </c>
       <c r="K228" t="n">
-        <v>-17.64705882352946</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L228" t="n">
         <v>37.83</v>
@@ -11907,7 +11929,7 @@
         <v>24.49999999999996</v>
       </c>
       <c r="K229" t="n">
-        <v>-3.225806451612947</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>37.83</v>
@@ -11958,7 +11980,7 @@
         <v>24.49999999999996</v>
       </c>
       <c r="K230" t="n">
-        <v>3.448275862069016</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L230" t="n">
         <v>37.83</v>
@@ -12009,7 +12031,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>3.448275862068763</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L231" t="n">
         <v>37.84</v>
@@ -12060,7 +12082,7 @@
         <v>24.89999999999996</v>
       </c>
       <c r="K232" t="n">
-        <v>-14.28571428571421</v>
+        <v>-16.66666666666637</v>
       </c>
       <c r="L232" t="n">
         <v>37.85000000000001</v>
@@ -12111,7 +12133,7 @@
         <v>25.29999999999996</v>
       </c>
       <c r="K233" t="n">
-        <v>6.666666666666761</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L233" t="n">
         <v>37.87</v>
@@ -12162,7 +12184,7 @@
         <v>25.39999999999996</v>
       </c>
       <c r="K234" t="n">
-        <v>-7.142857142857252</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L234" t="n">
         <v>37.88</v>
@@ -12213,7 +12235,7 @@
         <v>25.49999999999996</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L235" t="n">
         <v>37.88</v>
@@ -12264,7 +12286,7 @@
         <v>25.59999999999997</v>
       </c>
       <c r="K236" t="n">
-        <v>-3.448275862069016</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>37.9</v>
@@ -12315,7 +12337,7 @@
         <v>25.59999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>-7.142857142857252</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>37.9</v>
@@ -12366,7 +12388,7 @@
         <v>25.59999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>-3.703703703703762</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L238" t="n">
         <v>37.9</v>
@@ -12417,7 +12439,7 @@
         <v>25.69999999999997</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.142857142857252</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L239" t="n">
         <v>37.88</v>
@@ -12468,7 +12490,7 @@
         <v>25.79999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>-3.448275862069016</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L240" t="n">
         <v>37.87</v>
@@ -12519,7 +12541,7 @@
         <v>25.89999999999997</v>
       </c>
       <c r="K241" t="n">
-        <v>3.703703703703489</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L241" t="n">
         <v>37.87</v>
@@ -12570,7 +12592,7 @@
         <v>26.29999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>-3.448275862069016</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L242" t="n">
         <v>37.84999999999999</v>
@@ -12621,7 +12643,7 @@
         <v>26.69999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L243" t="n">
         <v>37.83</v>
@@ -12672,7 +12694,7 @@
         <v>26.99999999999996</v>
       </c>
       <c r="K244" t="n">
-        <v>-9.090909090909012</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L244" t="n">
         <v>37.79</v>
@@ -12774,7 +12796,7 @@
         <v>27.59999999999996</v>
       </c>
       <c r="K246" t="n">
-        <v>-5.882352941176569</v>
+        <v>-20</v>
       </c>
       <c r="L246" t="n">
         <v>37.73</v>
@@ -12825,7 +12847,7 @@
         <v>27.69999999999996</v>
       </c>
       <c r="K247" t="n">
-        <v>-15.15151515151517</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L247" t="n">
         <v>37.68</v>
@@ -12876,7 +12898,7 @@
         <v>27.69999999999996</v>
       </c>
       <c r="K248" t="n">
-        <v>-15.15151515151517</v>
+        <v>-20</v>
       </c>
       <c r="L248" t="n">
         <v>37.63</v>
@@ -12927,7 +12949,7 @@
         <v>27.79999999999996</v>
       </c>
       <c r="K249" t="n">
-        <v>-15.15151515151517</v>
+        <v>-20</v>
       </c>
       <c r="L249" t="n">
         <v>37.6</v>
@@ -12978,7 +13000,7 @@
         <v>29.39999999999996</v>
       </c>
       <c r="K250" t="n">
-        <v>-42.8571428571429</v>
+        <v>-54.28571428571436</v>
       </c>
       <c r="L250" t="n">
         <v>37.4</v>
@@ -13029,7 +13051,7 @@
         <v>30.79999999999996</v>
       </c>
       <c r="K251" t="n">
-        <v>-8.196721311475418</v>
+        <v>-2.222222222222257</v>
       </c>
       <c r="L251" t="n">
         <v>37.35</v>
@@ -13080,7 +13102,7 @@
         <v>31.59999999999996</v>
       </c>
       <c r="K252" t="n">
-        <v>-16.41791044776123</v>
+        <v>-26.53061224489795</v>
       </c>
       <c r="L252" t="n">
         <v>37.26000000000001</v>
@@ -13131,7 +13153,7 @@
         <v>31.59999999999996</v>
       </c>
       <c r="K253" t="n">
-        <v>-23.80952380952382</v>
+        <v>-21.73913043478263</v>
       </c>
       <c r="L253" t="n">
         <v>37.13</v>
@@ -13182,7 +13204,7 @@
         <v>31.79999999999996</v>
       </c>
       <c r="K254" t="n">
-        <v>-25.00000000000003</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L254" t="n">
         <v>37.01000000000001</v>
@@ -13233,7 +13255,7 @@
         <v>31.99999999999996</v>
       </c>
       <c r="K255" t="n">
-        <v>-23.07692307692308</v>
+        <v>-22.7272727272727</v>
       </c>
       <c r="L255" t="n">
         <v>36.88</v>
@@ -13284,7 +13306,7 @@
         <v>31.99999999999996</v>
       </c>
       <c r="K256" t="n">
-        <v>-21.87499999999998</v>
+        <v>-20.93023255813948</v>
       </c>
       <c r="L256" t="n">
         <v>36.78</v>
@@ -13335,7 +13357,7 @@
         <v>32.29999999999996</v>
       </c>
       <c r="K257" t="n">
-        <v>-25.37313432835816</v>
+        <v>-26.08695652173903</v>
       </c>
       <c r="L257" t="n">
         <v>36.66</v>
@@ -13386,7 +13408,7 @@
         <v>32.59999999999997</v>
       </c>
       <c r="K258" t="n">
-        <v>-28.57142857142857</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L258" t="n">
         <v>36.51000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>32.99999999999996</v>
       </c>
       <c r="K259" t="n">
-        <v>-20.54794520547946</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L259" t="n">
         <v>36.39</v>
@@ -13488,7 +13510,7 @@
         <v>32.99999999999996</v>
       </c>
       <c r="K260" t="n">
-        <v>-22.22222222222225</v>
+        <v>-45.4545454545454</v>
       </c>
       <c r="L260" t="n">
         <v>36.43000000000001</v>
@@ -13539,7 +13561,7 @@
         <v>34.59999999999997</v>
       </c>
       <c r="K261" t="n">
-        <v>1.149425287356339</v>
+        <v>46.66666666666651</v>
       </c>
       <c r="L261" t="n">
         <v>36.49</v>
@@ -13590,7 +13612,7 @@
         <v>34.59999999999997</v>
       </c>
       <c r="K262" t="n">
-        <v>6.024096385542171</v>
+        <v>46.66666666666651</v>
       </c>
       <c r="L262" t="n">
         <v>36.63</v>
@@ -13641,7 +13663,7 @@
         <v>34.69999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>0</v>
+        <v>51.72413793103438</v>
       </c>
       <c r="L263" t="n">
         <v>36.76000000000001</v>
@@ -13692,7 +13714,7 @@
         <v>35.09999999999997</v>
       </c>
       <c r="K264" t="n">
-        <v>-1.234567901234585</v>
+        <v>29.03225806451607</v>
       </c>
       <c r="L264" t="n">
         <v>36.87</v>
@@ -13743,7 +13765,7 @@
         <v>35.39999999999996</v>
       </c>
       <c r="K265" t="n">
-        <v>-8.641975308641921</v>
+        <v>17.64705882352946</v>
       </c>
       <c r="L265" t="n">
         <v>36.93</v>
@@ -13794,7 +13816,7 @@
         <v>35.89999999999996</v>
       </c>
       <c r="K266" t="n">
-        <v>1.20481927710845</v>
+        <v>38.88888888888884</v>
       </c>
       <c r="L266" t="n">
         <v>37.04000000000001</v>
@@ -13845,7 +13867,7 @@
         <v>36.29999999999996</v>
       </c>
       <c r="K267" t="n">
-        <v>-2.325581395348787</v>
+        <v>35.13513513513529</v>
       </c>
       <c r="L267" t="n">
         <v>37.14</v>
@@ -13896,7 +13918,7 @@
         <v>36.69999999999996</v>
       </c>
       <c r="K268" t="n">
-        <v>2.222222222222254</v>
+        <v>35.13513513513529</v>
       </c>
       <c r="L268" t="n">
         <v>37.31000000000001</v>
@@ -13947,7 +13969,7 @@
         <v>37.19999999999996</v>
       </c>
       <c r="K269" t="n">
-        <v>-4.255319148936156</v>
+        <v>19.04761904761917</v>
       </c>
       <c r="L269" t="n">
         <v>37.39000000000001</v>
@@ -13998,7 +14020,7 @@
         <v>37.39999999999996</v>
       </c>
       <c r="K270" t="n">
-        <v>12.5</v>
+        <v>-35.71428571428575</v>
       </c>
       <c r="L270" t="n">
         <v>37.45</v>
@@ -14049,7 +14071,7 @@
         <v>37.89999999999996</v>
       </c>
       <c r="K271" t="n">
-        <v>-12.67605633802815</v>
+        <v>-45.45454545454549</v>
       </c>
       <c r="L271" t="n">
         <v>37.3</v>
@@ -14100,7 +14122,7 @@
         <v>38.79999999999996</v>
       </c>
       <c r="K272" t="n">
-        <v>11.11111111111107</v>
+        <v>-12.19512195121953</v>
       </c>
       <c r="L272" t="n">
         <v>37.24000000000001</v>
@@ -14151,7 +14173,7 @@
         <v>38.99999999999996</v>
       </c>
       <c r="K273" t="n">
-        <v>8.10810810810813</v>
+        <v>-7.692307692307636</v>
       </c>
       <c r="L273" t="n">
         <v>37.17000000000001</v>
@@ -14202,7 +14224,7 @@
         <v>39.39999999999996</v>
       </c>
       <c r="K274" t="n">
-        <v>5.263157894736921</v>
+        <v>-9.999999999999982</v>
       </c>
       <c r="L274" t="n">
         <v>37.10000000000001</v>
@@ -14253,7 +14275,7 @@
         <v>39.49999999999996</v>
       </c>
       <c r="K275" t="n">
-        <v>1.333333333333353</v>
+        <v>-27.77777777777782</v>
       </c>
       <c r="L275" t="n">
         <v>37.05000000000001</v>
@@ -14304,7 +14326,7 @@
         <v>39.69999999999995</v>
       </c>
       <c r="K276" t="n">
-        <v>3.896103896103865</v>
+        <v>-11.76470588235314</v>
       </c>
       <c r="L276" t="n">
         <v>36.97000000000001</v>
@@ -14355,7 +14377,7 @@
         <v>39.69999999999995</v>
       </c>
       <c r="K277" t="n">
-        <v>8.108108108108041</v>
+        <v>-26.66666666666687</v>
       </c>
       <c r="L277" t="n">
         <v>36.93000000000001</v>
@@ -14406,7 +14428,7 @@
         <v>39.79999999999995</v>
       </c>
       <c r="K278" t="n">
-        <v>13.88888888888891</v>
+        <v>-7.692307692307819</v>
       </c>
       <c r="L278" t="n">
         <v>36.86000000000001</v>
@@ -14457,7 +14479,7 @@
         <v>39.79999999999995</v>
       </c>
       <c r="K279" t="n">
-        <v>8.82352941176474</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>36.84</v>
@@ -14508,7 +14530,7 @@
         <v>39.79999999999995</v>
       </c>
       <c r="K280" t="n">
-        <v>8.82352941176474</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L280" t="n">
         <v>36.84</v>
@@ -14559,7 +14581,7 @@
         <v>39.89999999999996</v>
       </c>
       <c r="K281" t="n">
-        <v>-20.75471698113214</v>
+        <v>-45.45454545454569</v>
       </c>
       <c r="L281" t="n">
         <v>36.88000000000001</v>
@@ -14610,7 +14632,7 @@
         <v>39.99999999999996</v>
       </c>
       <c r="K282" t="n">
-        <v>-18.51851851851855</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L282" t="n">
         <v>36.84</v>
@@ -14661,7 +14683,7 @@
         <v>39.99999999999996</v>
       </c>
       <c r="K283" t="n">
-        <v>-16.9811320754717</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L283" t="n">
         <v>36.82</v>
@@ -14712,7 +14734,7 @@
         <v>39.99999999999996</v>
       </c>
       <c r="K284" t="n">
-        <v>-10.20408163265308</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L284" t="n">
         <v>36.84</v>
@@ -14763,7 +14785,7 @@
         <v>40.09999999999996</v>
       </c>
       <c r="K285" t="n">
-        <v>-6.382978723404352</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>36.86</v>
@@ -14814,7 +14836,7 @@
         <v>41.09999999999996</v>
       </c>
       <c r="K286" t="n">
-        <v>3.846153846153767</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L286" t="n">
         <v>36.95999999999999</v>
@@ -14865,7 +14887,7 @@
         <v>41.09999999999996</v>
       </c>
       <c r="K287" t="n">
-        <v>12.49999999999989</v>
+        <v>69.2307692307689</v>
       </c>
       <c r="L287" t="n">
         <v>37.06</v>
@@ -14916,7 +14938,7 @@
         <v>41.69999999999995</v>
       </c>
       <c r="K288" t="n">
-        <v>-7.999999999999983</v>
+        <v>15.78947368421076</v>
       </c>
       <c r="L288" t="n">
         <v>37.09</v>
@@ -14967,7 +14989,7 @@
         <v>41.69999999999995</v>
       </c>
       <c r="K289" t="n">
-        <v>2.222222222222257</v>
+        <v>15.78947368421076</v>
       </c>
       <c r="L289" t="n">
         <v>37.12</v>
@@ -15018,7 +15040,7 @@
         <v>41.89999999999995</v>
       </c>
       <c r="K290" t="n">
-        <v>11.11111111111115</v>
+        <v>30.00000000000018</v>
       </c>
       <c r="L290" t="n">
         <v>37.17</v>
@@ -15069,7 +15091,7 @@
         <v>41.89999999999995</v>
       </c>
       <c r="K291" t="n">
-        <v>25.00000000000009</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L291" t="n">
         <v>37.23</v>
@@ -15120,7 +15142,7 @@
         <v>41.99999999999995</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L292" t="n">
         <v>37.27</v>
@@ -15171,7 +15193,7 @@
         <v>42.19999999999995</v>
       </c>
       <c r="K293" t="n">
-        <v>12.49999999999997</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L293" t="n">
         <v>37.33</v>
@@ -15222,7 +15244,7 @@
         <v>42.79999999999995</v>
       </c>
       <c r="K294" t="n">
-        <v>5.882352941176348</v>
+        <v>3.703703703703762</v>
       </c>
       <c r="L294" t="n">
         <v>37.33</v>
@@ -15273,7 +15295,7 @@
         <v>43.19999999999995</v>
       </c>
       <c r="K295" t="n">
-        <v>18.91891891891883</v>
+        <v>-23.80952380952387</v>
       </c>
       <c r="L295" t="n">
         <v>37.38</v>
@@ -15324,7 +15346,7 @@
         <v>43.49999999999995</v>
       </c>
       <c r="K296" t="n">
-        <v>5.263157894736921</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L296" t="n">
         <v>37.3</v>
@@ -15375,7 +15397,7 @@
         <v>43.69999999999995</v>
       </c>
       <c r="K297" t="n">
-        <v>10.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>37.23999999999999</v>
@@ -15426,7 +15448,7 @@
         <v>43.79999999999995</v>
       </c>
       <c r="K298" t="n">
-        <v>5.000000000000071</v>
+        <v>-4.761904761904826</v>
       </c>
       <c r="L298" t="n">
         <v>37.23</v>
@@ -15477,7 +15499,7 @@
         <v>44.09999999999995</v>
       </c>
       <c r="K299" t="n">
-        <v>11.62790697674419</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>37.25</v>
@@ -15528,7 +15550,7 @@
         <v>44.29999999999995</v>
       </c>
       <c r="K300" t="n">
-        <v>15.55555555555562</v>
+        <v>8.333333333333432</v>
       </c>
       <c r="L300" t="n">
         <v>37.27</v>
@@ -15579,7 +15601,7 @@
         <v>44.29999999999995</v>
       </c>
       <c r="K301" t="n">
-        <v>18.18181818181829</v>
+        <v>13.04347826086973</v>
       </c>
       <c r="L301" t="n">
         <v>37.29000000000001</v>
@@ -15630,7 +15652,7 @@
         <v>44.29999999999995</v>
       </c>
       <c r="K302" t="n">
-        <v>16.27906976744194</v>
+        <v>4.761904761904826</v>
       </c>
       <c r="L302" t="n">
         <v>37.32000000000001</v>
@@ -15681,7 +15703,7 @@
         <v>44.49999999999996</v>
       </c>
       <c r="K303" t="n">
-        <v>11.11111111111111</v>
+        <v>29.41176470588231</v>
       </c>
       <c r="L303" t="n">
         <v>37.31000000000001</v>
@@ -15732,7 +15754,7 @@
         <v>44.59999999999996</v>
       </c>
       <c r="K304" t="n">
-        <v>8.695652173913009</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>37.35000000000001</v>
@@ -15783,7 +15805,7 @@
         <v>44.79999999999995</v>
       </c>
       <c r="K305" t="n">
-        <v>6.382978723404352</v>
+        <v>7.692307692307776</v>
       </c>
       <c r="L305" t="n">
         <v>37.33000000000001</v>
@@ -15834,7 +15856,7 @@
         <v>44.89999999999996</v>
       </c>
       <c r="K306" t="n">
-        <v>-21.05263157894731</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L306" t="n">
         <v>37.33000000000001</v>
@@ -15885,7 +15907,7 @@
         <v>44.89999999999996</v>
       </c>
       <c r="K307" t="n">
-        <v>-21.05263157894731</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L307" t="n">
         <v>37.31000000000002</v>
@@ -15936,7 +15958,7 @@
         <v>45.09999999999996</v>
       </c>
       <c r="K308" t="n">
-        <v>-11.76470588235309</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L308" t="n">
         <v>37.28000000000002</v>
@@ -15987,7 +16009,7 @@
         <v>45.19999999999995</v>
       </c>
       <c r="K309" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L309" t="n">
         <v>37.21000000000002</v>
@@ -16038,7 +16060,7 @@
         <v>45.29999999999995</v>
       </c>
       <c r="K310" t="n">
-        <v>-17.64705882352946</v>
+        <v>-80.00000000000099</v>
       </c>
       <c r="L310" t="n">
         <v>37.13000000000001</v>
@@ -16089,7 +16111,7 @@
         <v>45.39999999999995</v>
       </c>
       <c r="K311" t="n">
-        <v>-14.28571428571428</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L311" t="n">
         <v>37.06000000000001</v>
@@ -16140,7 +16162,7 @@
         <v>45.39999999999995</v>
       </c>
       <c r="K312" t="n">
-        <v>-11.7647058823529</v>
+        <v>-55.55555555555608</v>
       </c>
       <c r="L312" t="n">
         <v>36.99</v>
@@ -16191,7 +16213,7 @@
         <v>45.49999999999995</v>
       </c>
       <c r="K313" t="n">
-        <v>-15.15151515151517</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L313" t="n">
         <v>36.95</v>
@@ -16242,7 +16264,7 @@
         <v>45.59999999999995</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L314" t="n">
         <v>36.91</v>
@@ -16293,7 +16315,7 @@
         <v>45.69999999999995</v>
       </c>
       <c r="K315" t="n">
-        <v>-20</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L315" t="n">
         <v>36.88</v>
@@ -16344,7 +16366,7 @@
         <v>45.69999999999995</v>
       </c>
       <c r="K316" t="n">
-        <v>-9.090909090909207</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L316" t="n">
         <v>36.86</v>
@@ -16395,7 +16417,7 @@
         <v>45.69999999999995</v>
       </c>
       <c r="K317" t="n">
-        <v>-20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>36.84</v>
@@ -16446,7 +16468,7 @@
         <v>45.79999999999995</v>
       </c>
       <c r="K318" t="n">
-        <v>-10.00000000000014</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L318" t="n">
         <v>36.85</v>
@@ -16497,7 +16519,7 @@
         <v>45.79999999999995</v>
       </c>
       <c r="K319" t="n">
-        <v>-29.41176470588231</v>
+        <v>20</v>
       </c>
       <c r="L319" t="n">
         <v>36.87</v>
@@ -16548,7 +16570,7 @@
         <v>45.79999999999995</v>
       </c>
       <c r="K320" t="n">
-        <v>-46.66666666666686</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>36.88</v>
@@ -16599,7 +16621,7 @@
         <v>46.09999999999995</v>
       </c>
       <c r="K321" t="n">
-        <v>-55.55555555555565</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L321" t="n">
         <v>36.85</v>
@@ -16650,7 +16672,7 @@
         <v>46.09999999999995</v>
       </c>
       <c r="K322" t="n">
-        <v>-55.55555555555565</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L322" t="n">
         <v>36.82000000000001</v>
@@ -16701,7 +16723,7 @@
         <v>46.09999999999995</v>
       </c>
       <c r="K323" t="n">
-        <v>-50</v>
+        <v>-59.99999999999943</v>
       </c>
       <c r="L323" t="n">
         <v>36.78000000000001</v>
@@ -16752,7 +16774,7 @@
         <v>46.19999999999995</v>
       </c>
       <c r="K324" t="n">
-        <v>-37.49999999999978</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L324" t="n">
         <v>36.76000000000001</v>
@@ -16803,7 +16825,7 @@
         <v>46.29999999999995</v>
       </c>
       <c r="K325" t="n">
-        <v>-33.33333333333333</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L325" t="n">
         <v>36.74000000000001</v>
@@ -16854,7 +16876,7 @@
         <v>46.29999999999995</v>
       </c>
       <c r="K326" t="n">
-        <v>-28.5714285714285</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L326" t="n">
         <v>36.72000000000001</v>
@@ -16905,7 +16927,7 @@
         <v>46.39999999999996</v>
       </c>
       <c r="K327" t="n">
-        <v>-19.99999999999981</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L327" t="n">
         <v>36.71000000000001</v>
@@ -16956,7 +16978,7 @@
         <v>46.59999999999995</v>
       </c>
       <c r="K328" t="n">
-        <v>6.666666666666793</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>36.71000000000001</v>
@@ -17007,7 +17029,7 @@
         <v>46.69999999999995</v>
       </c>
       <c r="K329" t="n">
-        <v>19.99999999999981</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L329" t="n">
         <v>36.72000000000001</v>
@@ -17058,7 +17080,7 @@
         <v>46.89999999999996</v>
       </c>
       <c r="K330" t="n">
-        <v>25.00000000000022</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L330" t="n">
         <v>36.75000000000001</v>
@@ -17109,7 +17131,7 @@
         <v>46.99999999999995</v>
       </c>
       <c r="K331" t="n">
-        <v>24.99999999999989</v>
+        <v>77.77777777777743</v>
       </c>
       <c r="L331" t="n">
         <v>36.82000000000001</v>
@@ -17160,7 +17182,7 @@
         <v>47.49999999999995</v>
       </c>
       <c r="K332" t="n">
-        <v>-4.761904761904826</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L332" t="n">
         <v>36.84000000000001</v>
@@ -17211,7 +17233,7 @@
         <v>47.79999999999995</v>
       </c>
       <c r="K333" t="n">
-        <v>4.347826086956576</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L333" t="n">
         <v>36.89000000000001</v>
@@ -17262,7 +17284,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K334" t="n">
-        <v>-4.000000000000045</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L334" t="n">
         <v>36.90000000000001</v>
@@ -17313,7 +17335,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L335" t="n">
         <v>36.92000000000001</v>
@@ -17364,7 +17386,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>5.882352941176126</v>
       </c>
       <c r="L336" t="n">
         <v>36.94000000000001</v>
@@ -17415,7 +17437,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L337" t="n">
         <v>36.95000000000001</v>
@@ -17466,7 +17488,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K338" t="n">
-        <v>-4.347826086956576</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L338" t="n">
         <v>36.94000000000001</v>
@@ -17517,7 +17539,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K339" t="n">
-        <v>-4.347826086956576</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L339" t="n">
         <v>36.92000000000002</v>
@@ -17568,7 +17590,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K340" t="n">
-        <v>-4.347826086956576</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L340" t="n">
         <v>36.88000000000002</v>
@@ -17619,7 +17641,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K341" t="n">
-        <v>9.999999999999751</v>
+        <v>0</v>
       </c>
       <c r="L341" t="n">
         <v>36.83000000000002</v>
@@ -17670,7 +17692,7 @@
         <v>48.09999999999996</v>
       </c>
       <c r="K342" t="n">
-        <v>9.999999999999751</v>
+        <v>-100</v>
       </c>
       <c r="L342" t="n">
         <v>36.83000000000002</v>
@@ -17720,9 +17742,7 @@
       <c r="J343" t="n">
         <v>48.09999999999996</v>
       </c>
-      <c r="K343" t="n">
-        <v>9.999999999999751</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>36.80000000000002</v>
       </c>
@@ -17771,9 +17791,7 @@
       <c r="J344" t="n">
         <v>48.09999999999996</v>
       </c>
-      <c r="K344" t="n">
-        <v>5.263157894736527</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>36.80000000000002</v>
       </c>
@@ -17822,9 +17840,7 @@
       <c r="J345" t="n">
         <v>48.09999999999996</v>
       </c>
-      <c r="K345" t="n">
-        <v>11.11111111111085</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>36.80000000000002</v>
       </c>
@@ -17874,7 +17890,7 @@
         <v>48.19999999999995</v>
       </c>
       <c r="K346" t="n">
-        <v>5.263157894736921</v>
+        <v>-100</v>
       </c>
       <c r="L346" t="n">
         <v>36.79000000000001</v>
@@ -17925,7 +17941,7 @@
         <v>48.19999999999995</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L347" t="n">
         <v>36.78000000000002</v>
@@ -17976,7 +17992,7 @@
         <v>48.19999999999995</v>
       </c>
       <c r="K348" t="n">
-        <v>-12.49999999999972</v>
+        <v>-100</v>
       </c>
       <c r="L348" t="n">
         <v>36.77000000000001</v>
@@ -18027,7 +18043,7 @@
         <v>48.39999999999996</v>
       </c>
       <c r="K349" t="n">
-        <v>-29.41176470588231</v>
+        <v>-100</v>
       </c>
       <c r="L349" t="n">
         <v>36.74000000000001</v>
@@ -18078,7 +18094,7 @@
         <v>48.39999999999996</v>
       </c>
       <c r="K350" t="n">
-        <v>-46.66666666666686</v>
+        <v>-100</v>
       </c>
       <c r="L350" t="n">
         <v>36.71000000000001</v>
@@ -18129,7 +18145,7 @@
         <v>48.49999999999996</v>
       </c>
       <c r="K351" t="n">
-        <v>-46.66666666666616</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L351" t="n">
         <v>36.69000000000001</v>
@@ -18180,7 +18196,7 @@
         <v>48.59999999999996</v>
       </c>
       <c r="K352" t="n">
-        <v>-9.090909090908504</v>
+        <v>-19.99999999999886</v>
       </c>
       <c r="L352" t="n">
         <v>36.68000000000001</v>
@@ -18231,7 +18247,7 @@
         <v>48.69999999999996</v>
       </c>
       <c r="K353" t="n">
-        <v>-55.5555555555552</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L353" t="n">
         <v>36.66000000000001</v>
@@ -18333,7 +18349,7 @@
         <v>48.79999999999996</v>
       </c>
       <c r="K355" t="n">
-        <v>-42.85714285714228</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>36.60000000000001</v>
@@ -18384,7 +18400,7 @@
         <v>48.79999999999996</v>
       </c>
       <c r="K356" t="n">
-        <v>-42.85714285714228</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>36.58000000000001</v>
@@ -18435,7 +18451,7 @@
         <v>48.79999999999996</v>
       </c>
       <c r="K357" t="n">
-        <v>-42.85714285714228</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L357" t="n">
         <v>36.56000000000001</v>
@@ -18486,7 +18502,7 @@
         <v>48.89999999999996</v>
       </c>
       <c r="K358" t="n">
-        <v>-24.99999999999933</v>
+        <v>20</v>
       </c>
       <c r="L358" t="n">
         <v>36.55000000000001</v>
@@ -18537,7 +18553,7 @@
         <v>48.89999999999996</v>
       </c>
       <c r="K359" t="n">
-        <v>-24.99999999999933</v>
+        <v>20</v>
       </c>
       <c r="L359" t="n">
         <v>36.56000000000002</v>
@@ -18588,7 +18604,7 @@
         <v>48.89999999999996</v>
       </c>
       <c r="K360" t="n">
-        <v>-24.99999999999933</v>
+        <v>0</v>
       </c>
       <c r="L360" t="n">
         <v>36.57000000000001</v>
@@ -18639,7 +18655,7 @@
         <v>48.99999999999996</v>
       </c>
       <c r="K361" t="n">
-        <v>-11.11111111111041</v>
+        <v>0</v>
       </c>
       <c r="L361" t="n">
         <v>36.58000000000001</v>
@@ -18690,7 +18706,7 @@
         <v>49.09999999999997</v>
       </c>
       <c r="K362" t="n">
-        <v>-19.99999999999943</v>
+        <v>0</v>
       </c>
       <c r="L362" t="n">
         <v>36.57000000000001</v>
@@ -18741,7 +18757,7 @@
         <v>49.29999999999996</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L363" t="n">
         <v>36.59000000000002</v>
@@ -18792,7 +18808,7 @@
         <v>49.49999999999996</v>
       </c>
       <c r="K364" t="n">
-        <v>-14.285714285714</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L364" t="n">
         <v>36.60000000000002</v>
@@ -18843,7 +18859,7 @@
         <v>49.49999999999996</v>
       </c>
       <c r="K365" t="n">
-        <v>-14.285714285714</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L365" t="n">
         <v>36.61000000000002</v>
@@ -18894,7 +18910,7 @@
         <v>49.59999999999996</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L366" t="n">
         <v>36.63000000000002</v>
@@ -18945,7 +18961,7 @@
         <v>49.69999999999995</v>
       </c>
       <c r="K367" t="n">
-        <v>6.666666666666288</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L367" t="n">
         <v>36.66000000000002</v>
@@ -18996,7 +19012,7 @@
         <v>49.69999999999995</v>
       </c>
       <c r="K368" t="n">
-        <v>6.666666666666288</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L368" t="n">
         <v>36.68000000000002</v>
@@ -19047,7 +19063,7 @@
         <v>49.89999999999996</v>
       </c>
       <c r="K369" t="n">
-        <v>33.33333333333333</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L369" t="n">
         <v>36.72000000000001</v>
@@ -19098,7 +19114,7 @@
         <v>50.19999999999995</v>
       </c>
       <c r="K370" t="n">
-        <v>11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>36.73000000000001</v>
@@ -19149,7 +19165,7 @@
         <v>50.19999999999995</v>
       </c>
       <c r="K371" t="n">
-        <v>5.882352941176569</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L371" t="n">
         <v>36.73000000000001</v>
@@ -19200,7 +19216,7 @@
         <v>50.19999999999995</v>
       </c>
       <c r="K372" t="n">
-        <v>0</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L372" t="n">
         <v>36.74000000000001</v>
@@ -19251,7 +19267,7 @@
         <v>50.49999999999995</v>
       </c>
       <c r="K373" t="n">
-        <v>22.22222222222226</v>
+        <v>40.00000000000014</v>
       </c>
       <c r="L373" t="n">
         <v>36.76000000000001</v>
@@ -19302,7 +19318,7 @@
         <v>50.69999999999995</v>
       </c>
       <c r="K374" t="n">
-        <v>15.78947368421045</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L374" t="n">
         <v>36.78000000000001</v>
@@ -19353,7 +19369,7 @@
         <v>50.69999999999995</v>
       </c>
       <c r="K375" t="n">
-        <v>15.78947368421045</v>
+        <v>9.090909090908621</v>
       </c>
       <c r="L375" t="n">
         <v>36.8</v>
@@ -19404,7 +19420,7 @@
         <v>50.89999999999996</v>
       </c>
       <c r="K376" t="n">
-        <v>23.80952380952387</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L376" t="n">
         <v>36.83000000000001</v>
@@ -19455,7 +19471,7 @@
         <v>51.19999999999995</v>
       </c>
       <c r="K377" t="n">
-        <v>8.333333333333481</v>
+        <v>-6.666666666666288</v>
       </c>
       <c r="L377" t="n">
         <v>36.82000000000001</v>
@@ -19506,7 +19522,7 @@
         <v>51.49999999999995</v>
       </c>
       <c r="K378" t="n">
-        <v>15.3846153846154</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>36.84</v>
@@ -19557,7 +19573,7 @@
         <v>51.79999999999995</v>
       </c>
       <c r="K379" t="n">
-        <v>3.448275862069033</v>
+        <v>0</v>
       </c>
       <c r="L379" t="n">
         <v>36.81</v>
@@ -19608,7 +19624,7 @@
         <v>51.89999999999994</v>
       </c>
       <c r="K380" t="n">
-        <v>6.666666666666572</v>
+        <v>5.882352941176175</v>
       </c>
       <c r="L380" t="n">
         <v>36.82000000000001</v>
@@ -19710,7 +19726,7 @@
         <v>51.99999999999994</v>
       </c>
       <c r="K382" t="n">
-        <v>3.44827586206905</v>
+        <v>-20</v>
       </c>
       <c r="L382" t="n">
         <v>36.82000000000001</v>
@@ -19761,7 +19777,7 @@
         <v>52.19999999999993</v>
       </c>
       <c r="K383" t="n">
-        <v>3.44827586206905</v>
+        <v>6.666666666666857</v>
       </c>
       <c r="L383" t="n">
         <v>36.81</v>
@@ -19812,7 +19828,7 @@
         <v>52.19999999999993</v>
       </c>
       <c r="K384" t="n">
-        <v>11.11111111111111</v>
+        <v>6.666666666666857</v>
       </c>
       <c r="L384" t="n">
         <v>36.82</v>
@@ -19863,7 +19879,7 @@
         <v>52.19999999999993</v>
       </c>
       <c r="K385" t="n">
-        <v>11.11111111111111</v>
+        <v>-7.692307692307944</v>
       </c>
       <c r="L385" t="n">
         <v>36.83</v>
@@ -19914,7 +19930,7 @@
         <v>52.19999999999993</v>
       </c>
       <c r="K386" t="n">
-        <v>7.692307692307608</v>
+        <v>20</v>
       </c>
       <c r="L386" t="n">
         <v>36.81999999999999</v>
@@ -19965,7 +19981,7 @@
         <v>52.29999999999993</v>
       </c>
       <c r="K387" t="n">
-        <v>7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>36.84999999999999</v>
@@ -20016,7 +20032,7 @@
         <v>52.29999999999993</v>
       </c>
       <c r="K388" t="n">
-        <v>7.69230769230786</v>
+        <v>60.00000000000114</v>
       </c>
       <c r="L388" t="n">
         <v>36.84999999999999</v>
@@ -20067,7 +20083,7 @@
         <v>52.29999999999993</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L389" t="n">
         <v>36.88</v>
@@ -20118,7 +20134,7 @@
         <v>52.29999999999993</v>
       </c>
       <c r="K390" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L390" t="n">
         <v>36.89999999999999</v>
@@ -20169,7 +20185,7 @@
         <v>52.39999999999993</v>
       </c>
       <c r="K391" t="n">
-        <v>9.090909090908973</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L391" t="n">
         <v>36.91999999999999</v>
@@ -20220,7 +20236,7 @@
         <v>52.49999999999994</v>
       </c>
       <c r="K392" t="n">
-        <v>13.04347826086954</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L392" t="n">
         <v>36.95</v>
@@ -20271,7 +20287,7 @@
         <v>52.49999999999994</v>
       </c>
       <c r="K393" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L393" t="n">
         <v>36.95999999999999</v>
@@ -20322,7 +20338,7 @@
         <v>52.59999999999994</v>
       </c>
       <c r="K394" t="n">
-        <v>15.78947368421088</v>
+        <v>50</v>
       </c>
       <c r="L394" t="n">
         <v>36.98</v>
@@ -20373,7 +20389,7 @@
         <v>52.79999999999994</v>
       </c>
       <c r="K395" t="n">
-        <v>4.761904761904859</v>
+        <v>0</v>
       </c>
       <c r="L395" t="n">
         <v>36.98</v>
@@ -20475,7 +20491,7 @@
         <v>52.99999999999994</v>
       </c>
       <c r="K397" t="n">
-        <v>11.11111111111093</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L397" t="n">
         <v>36.98</v>
@@ -20526,7 +20542,7 @@
         <v>52.99999999999994</v>
       </c>
       <c r="K398" t="n">
-        <v>-6.666666666666793</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L398" t="n">
         <v>36.97</v>
@@ -20577,7 +20593,7 @@
         <v>53.09999999999994</v>
       </c>
       <c r="K399" t="n">
-        <v>23.07692307692291</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>36.97</v>
@@ -20628,7 +20644,7 @@
         <v>53.19999999999995</v>
       </c>
       <c r="K400" t="n">
-        <v>23.07692307692333</v>
+        <v>25</v>
       </c>
       <c r="L400" t="n">
         <v>36.98</v>
@@ -20679,7 +20695,7 @@
         <v>53.19999999999995</v>
       </c>
       <c r="K401" t="n">
-        <v>33.33333333333294</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L401" t="n">
         <v>37.00000000000001</v>
@@ -20730,7 +20746,7 @@
         <v>53.19999999999995</v>
       </c>
       <c r="K402" t="n">
-        <v>33.33333333333294</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L402" t="n">
         <v>37.01000000000001</v>
@@ -20781,7 +20797,7 @@
         <v>53.19999999999995</v>
       </c>
       <c r="K403" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L403" t="n">
         <v>37.02000000000001</v>
@@ -20832,7 +20848,7 @@
         <v>53.19999999999995</v>
       </c>
       <c r="K404" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L404" t="n">
         <v>37.02000000000001</v>
@@ -20883,7 +20899,7 @@
         <v>53.39999999999994</v>
       </c>
       <c r="K405" t="n">
-        <v>33.33333333333294</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L405" t="n">
         <v>37.06000000000002</v>
@@ -20934,7 +20950,7 @@
         <v>53.39999999999994</v>
       </c>
       <c r="K406" t="n">
-        <v>33.33333333333294</v>
+        <v>100</v>
       </c>
       <c r="L406" t="n">
         <v>37.09000000000002</v>
@@ -20985,7 +21001,7 @@
         <v>53.59999999999994</v>
       </c>
       <c r="K407" t="n">
-        <v>7.692307692307776</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L407" t="n">
         <v>37.11000000000002</v>
@@ -21036,7 +21052,7 @@
         <v>53.59999999999994</v>
       </c>
       <c r="K408" t="n">
-        <v>7.692307692307776</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L408" t="n">
         <v>37.13000000000002</v>
@@ -21087,7 +21103,7 @@
         <v>53.69999999999994</v>
       </c>
       <c r="K409" t="n">
-        <v>14.28571428571443</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L409" t="n">
         <v>37.15000000000002</v>
@@ -21138,7 +21154,7 @@
         <v>53.89999999999994</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L410" t="n">
         <v>37.14000000000002</v>
@@ -21189,7 +21205,7 @@
         <v>53.89999999999994</v>
       </c>
       <c r="K411" t="n">
-        <v>6.66666666666673</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L411" t="n">
         <v>37.13000000000002</v>
@@ -21240,7 +21256,7 @@
         <v>53.99999999999994</v>
       </c>
       <c r="K412" t="n">
-        <v>6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>37.13000000000002</v>
@@ -21291,7 +21307,7 @@
         <v>54.59999999999994</v>
       </c>
       <c r="K413" t="n">
-        <v>33.33333333333333</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L413" t="n">
         <v>37.19000000000001</v>
@@ -21342,7 +21358,7 @@
         <v>54.89999999999995</v>
       </c>
       <c r="K414" t="n">
-        <v>13.04347826086938</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L414" t="n">
         <v>37.22000000000001</v>
@@ -21393,7 +21409,7 @@
         <v>54.89999999999995</v>
       </c>
       <c r="K415" t="n">
-        <v>23.80952380952371</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L415" t="n">
         <v>37.23</v>
@@ -21444,7 +21460,7 @@
         <v>54.89999999999995</v>
       </c>
       <c r="K416" t="n">
-        <v>19.99999999999986</v>
+        <v>23.07692307692266</v>
       </c>
       <c r="L416" t="n">
         <v>37.24</v>
@@ -21495,7 +21511,7 @@
         <v>55.09999999999994</v>
       </c>
       <c r="K417" t="n">
-        <v>14.28571428571448</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L417" t="n">
         <v>37.25</v>
@@ -21546,7 +21562,7 @@
         <v>55.09999999999994</v>
       </c>
       <c r="K418" t="n">
-        <v>14.28571428571448</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>37.26</v>
@@ -21597,7 +21613,7 @@
         <v>55.49999999999995</v>
       </c>
       <c r="K419" t="n">
-        <v>-8.333333333333432</v>
+        <v>-12.50000000000011</v>
       </c>
       <c r="L419" t="n">
         <v>37.22</v>
@@ -21648,7 +21664,7 @@
         <v>55.69999999999995</v>
       </c>
       <c r="K420" t="n">
-        <v>-4.000000000000045</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>37.22</v>
@@ -21699,7 +21715,7 @@
         <v>55.79999999999995</v>
       </c>
       <c r="K421" t="n">
-        <v>-7.692307692307776</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L421" t="n">
         <v>37.20999999999999</v>
@@ -21750,7 +21766,7 @@
         <v>55.89999999999996</v>
       </c>
       <c r="K422" t="n">
-        <v>-11.11111111111123</v>
+        <v>-69.23076923076906</v>
       </c>
       <c r="L422" t="n">
         <v>37.17999999999999</v>
@@ -21801,7 +21817,7 @@
         <v>55.89999999999996</v>
       </c>
       <c r="K423" t="n">
-        <v>-11.11111111111123</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L423" t="n">
         <v>37.09</v>
@@ -21852,7 +21868,7 @@
         <v>55.89999999999996</v>
       </c>
       <c r="K424" t="n">
-        <v>-11.11111111111123</v>
+        <v>-59.99999999999972</v>
       </c>
       <c r="L424" t="n">
         <v>37.03</v>
@@ -21903,7 +21919,7 @@
         <v>56.09999999999996</v>
       </c>
       <c r="K425" t="n">
-        <v>-11.11111111111093</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L425" t="n">
         <v>36.99</v>
@@ -21954,7 +21970,7 @@
         <v>56.09999999999996</v>
       </c>
       <c r="K426" t="n">
-        <v>-11.11111111111093</v>
+        <v>-20</v>
       </c>
       <c r="L426" t="n">
         <v>36.95</v>
@@ -22005,7 +22021,7 @@
         <v>56.09999999999996</v>
       </c>
       <c r="K427" t="n">
-        <v>-4.000000000000023</v>
+        <v>-20</v>
       </c>
       <c r="L427" t="n">
         <v>36.93000000000001</v>
@@ -22056,7 +22072,7 @@
         <v>56.09999999999996</v>
       </c>
       <c r="K428" t="n">
-        <v>-4.000000000000023</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L428" t="n">
         <v>36.91000000000001</v>
@@ -22107,7 +22123,7 @@
         <v>56.09999999999996</v>
       </c>
       <c r="K429" t="n">
-        <v>-8.333333333333384</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>36.93000000000001</v>
@@ -22158,7 +22174,7 @@
         <v>56.19999999999996</v>
       </c>
       <c r="K430" t="n">
-        <v>-4.347826086956549</v>
+        <v>0</v>
       </c>
       <c r="L430" t="n">
         <v>36.92</v>
@@ -22209,7 +22225,7 @@
         <v>56.29999999999996</v>
       </c>
       <c r="K431" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L431" t="n">
         <v>36.93000000000001</v>
@@ -22260,7 +22276,7 @@
         <v>56.29999999999996</v>
       </c>
       <c r="K432" t="n">
-        <v>-4.347826086956549</v>
+        <v>50</v>
       </c>
       <c r="L432" t="n">
         <v>36.95</v>
@@ -22311,7 +22327,7 @@
         <v>56.29999999999996</v>
       </c>
       <c r="K433" t="n">
-        <v>-41.17647058823505</v>
+        <v>50</v>
       </c>
       <c r="L433" t="n">
         <v>36.97000000000001</v>
@@ -22362,7 +22378,7 @@
         <v>56.39999999999996</v>
       </c>
       <c r="K434" t="n">
-        <v>-33.33333333333302</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L434" t="n">
         <v>36.98</v>
@@ -22413,7 +22429,7 @@
         <v>56.49999999999996</v>
       </c>
       <c r="K435" t="n">
-        <v>-24.99999999999967</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>36.98</v>
@@ -22464,7 +22480,7 @@
         <v>56.59999999999997</v>
       </c>
       <c r="K436" t="n">
-        <v>-29.41176470588206</v>
+        <v>-20</v>
       </c>
       <c r="L436" t="n">
         <v>36.97</v>
@@ -22617,7 +22633,7 @@
         <v>56.59999999999997</v>
       </c>
       <c r="K439" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>36.93999999999999</v>
@@ -22668,7 +22684,7 @@
         <v>56.59999999999997</v>
       </c>
       <c r="K440" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>36.93999999999999</v>
@@ -22719,7 +22735,7 @@
         <v>56.69999999999997</v>
       </c>
       <c r="K441" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L441" t="n">
         <v>36.91999999999999</v>
@@ -22770,7 +22786,7 @@
         <v>56.89999999999997</v>
       </c>
       <c r="K442" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L442" t="n">
         <v>36.91999999999999</v>
@@ -22872,7 +22888,7 @@
         <v>56.99999999999997</v>
       </c>
       <c r="K444" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L444" t="n">
         <v>36.94</v>
@@ -22923,7 +22939,7 @@
         <v>57.09999999999997</v>
       </c>
       <c r="K445" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L445" t="n">
         <v>36.95999999999999</v>
@@ -22974,7 +22990,7 @@
         <v>57.19999999999997</v>
       </c>
       <c r="K446" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L446" t="n">
         <v>36.98</v>
@@ -23025,7 +23041,7 @@
         <v>57.19999999999997</v>
       </c>
       <c r="K447" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L447" t="n">
         <v>37.00000000000001</v>
@@ -23076,7 +23092,7 @@
         <v>57.29999999999998</v>
       </c>
       <c r="K448" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L448" t="n">
         <v>37.03000000000001</v>
@@ -23127,7 +23143,7 @@
         <v>57.39999999999998</v>
       </c>
       <c r="K449" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L449" t="n">
         <v>37.05000000000001</v>
@@ -23178,7 +23194,7 @@
         <v>57.39999999999998</v>
       </c>
       <c r="K450" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L450" t="n">
         <v>37.07000000000001</v>
@@ -23229,7 +23245,7 @@
         <v>57.59999999999998</v>
       </c>
       <c r="K451" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L451" t="n">
         <v>37.08000000000001</v>
@@ -23331,7 +23347,7 @@
         <v>57.79999999999998</v>
       </c>
       <c r="K453" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L453" t="n">
         <v>37.07000000000001</v>
@@ -23382,7 +23398,7 @@
         <v>57.89999999999998</v>
       </c>
       <c r="K454" t="n">
-        <v>6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L454" t="n">
         <v>37.06000000000001</v>
@@ -23433,7 +23449,7 @@
         <v>57.89999999999998</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L455" t="n">
         <v>37.04000000000001</v>
@@ -23484,7 +23500,7 @@
         <v>57.89999999999998</v>
       </c>
       <c r="K456" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L456" t="n">
         <v>37.03000000000001</v>
@@ -23535,7 +23551,7 @@
         <v>57.99999999999999</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L457" t="n">
         <v>37.01000000000001</v>
@@ -23586,7 +23602,7 @@
         <v>58.09999999999999</v>
       </c>
       <c r="K458" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L458" t="n">
         <v>36.99</v>
@@ -23637,7 +23653,7 @@
         <v>58.19999999999999</v>
       </c>
       <c r="K459" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L459" t="n">
         <v>36.97</v>
@@ -23688,7 +23704,7 @@
         <v>58.29999999999999</v>
       </c>
       <c r="K460" t="n">
-        <v>5.88235294117647</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L460" t="n">
         <v>36.95999999999999</v>
@@ -23739,7 +23755,7 @@
         <v>58.49999999999999</v>
       </c>
       <c r="K461" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L461" t="n">
         <v>36.95</v>
@@ -23790,7 +23806,7 @@
         <v>58.49999999999999</v>
       </c>
       <c r="K462" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L462" t="n">
         <v>36.93</v>
@@ -23892,7 +23908,7 @@
         <v>58.9</v>
       </c>
       <c r="K464" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L464" t="n">
         <v>36.92</v>
@@ -23943,7 +23959,7 @@
         <v>59.1</v>
       </c>
       <c r="K465" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>36.92</v>
@@ -23994,7 +24010,7 @@
         <v>59.1</v>
       </c>
       <c r="K466" t="n">
-        <v>-5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L466" t="n">
         <v>36.92</v>
@@ -24045,7 +24061,7 @@
         <v>59.2</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L467" t="n">
         <v>36.94000000000001</v>
@@ -24096,7 +24112,7 @@
         <v>59.3</v>
       </c>
       <c r="K468" t="n">
-        <v>-10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L468" t="n">
         <v>36.94000000000001</v>
@@ -24147,7 +24163,7 @@
         <v>59.40000000000001</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L469" t="n">
         <v>36.96000000000002</v>
@@ -24198,7 +24214,7 @@
         <v>59.50000000000001</v>
       </c>
       <c r="K470" t="n">
-        <v>-4.761904761904762</v>
+        <v>20</v>
       </c>
       <c r="L470" t="n">
         <v>36.96000000000002</v>
@@ -24249,7 +24265,7 @@
         <v>59.60000000000001</v>
       </c>
       <c r="K471" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L471" t="n">
         <v>36.97000000000001</v>
@@ -24351,7 +24367,7 @@
         <v>59.80000000000001</v>
       </c>
       <c r="K473" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L473" t="n">
         <v>37.00000000000001</v>
@@ -24402,7 +24418,7 @@
         <v>59.80000000000001</v>
       </c>
       <c r="K474" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L474" t="n">
         <v>37.03000000000002</v>
@@ -24453,7 +24469,7 @@
         <v>59.80000000000001</v>
       </c>
       <c r="K475" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L475" t="n">
         <v>37.04000000000001</v>
@@ -24504,7 +24520,7 @@
         <v>59.90000000000001</v>
       </c>
       <c r="K476" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L476" t="n">
         <v>37.06000000000002</v>
@@ -24555,7 +24571,7 @@
         <v>60.00000000000001</v>
       </c>
       <c r="K477" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L477" t="n">
         <v>37.06000000000002</v>
@@ -24606,7 +24622,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L478" t="n">
         <v>37.08000000000001</v>
@@ -24657,7 +24673,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L479" t="n">
         <v>37.09000000000001</v>
@@ -24708,7 +24724,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K480" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L480" t="n">
         <v>37.11000000000001</v>
@@ -24759,7 +24775,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K481" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L481" t="n">
         <v>37.14000000000001</v>
@@ -24810,7 +24826,7 @@
         <v>60.10000000000002</v>
       </c>
       <c r="K482" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L482" t="n">
         <v>37.16000000000001</v>
@@ -24861,7 +24877,7 @@
         <v>60.40000000000002</v>
       </c>
       <c r="K483" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L483" t="n">
         <v>37.14</v>
@@ -24912,7 +24928,7 @@
         <v>60.50000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L484" t="n">
         <v>37.11</v>
@@ -24963,7 +24979,7 @@
         <v>60.60000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>-6.666666666666667</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L485" t="n">
         <v>37.09</v>
@@ -25014,7 +25030,7 @@
         <v>60.70000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L486" t="n">
         <v>37.05</v>
@@ -25065,7 +25081,7 @@
         <v>60.80000000000003</v>
       </c>
       <c r="K487" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L487" t="n">
         <v>37.02999999999999</v>
@@ -25116,7 +25132,7 @@
         <v>61.00000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>-17.64705882352907</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L488" t="n">
         <v>36.98</v>
@@ -25167,7 +25183,7 @@
         <v>61.20000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>-11.1111111111112</v>
+        <v>-27.27272727272763</v>
       </c>
       <c r="L489" t="n">
         <v>36.95</v>
@@ -25218,7 +25234,7 @@
         <v>61.40000000000001</v>
       </c>
       <c r="K490" t="n">
-        <v>-15.78947368421033</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L490" t="n">
         <v>36.89999999999999</v>
@@ -25269,7 +25285,7 @@
         <v>61.60000000000001</v>
       </c>
       <c r="K491" t="n">
-        <v>0</v>
+        <v>-20.00000000000038</v>
       </c>
       <c r="L491" t="n">
         <v>36.86999999999999</v>
@@ -25320,7 +25336,7 @@
         <v>61.60000000000001</v>
       </c>
       <c r="K492" t="n">
-        <v>-5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>36.83999999999999</v>
@@ -25371,7 +25387,7 @@
         <v>61.60000000000001</v>
       </c>
       <c r="K493" t="n">
-        <v>-11.11111111111129</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L493" t="n">
         <v>36.83999999999999</v>
@@ -25422,7 +25438,7 @@
         <v>61.60000000000001</v>
       </c>
       <c r="K494" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L494" t="n">
         <v>36.84999999999999</v>
@@ -25473,7 +25489,7 @@
         <v>61.60000000000001</v>
       </c>
       <c r="K495" t="n">
-        <v>-11.11111111111129</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L495" t="n">
         <v>36.84999999999999</v>
@@ -25524,7 +25540,7 @@
         <v>61.70000000000001</v>
       </c>
       <c r="K496" t="n">
-        <v>-22.22222222222257</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L496" t="n">
         <v>36.84999999999999</v>
@@ -25575,7 +25591,7 @@
         <v>61.70000000000001</v>
       </c>
       <c r="K497" t="n">
-        <v>-17.64705882352971</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L497" t="n">
         <v>36.83999999999999</v>
@@ -25626,7 +25642,7 @@
         <v>61.70000000000001</v>
       </c>
       <c r="K498" t="n">
-        <v>-25.00000000000044</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L498" t="n">
         <v>36.84999999999999</v>
@@ -25677,7 +25693,7 @@
         <v>61.70000000000001</v>
       </c>
       <c r="K499" t="n">
-        <v>-25.00000000000044</v>
+        <v>33.33333333333176</v>
       </c>
       <c r="L499" t="n">
         <v>36.84</v>
@@ -25728,7 +25744,7 @@
         <v>62.00000000000001</v>
       </c>
       <c r="K500" t="n">
-        <v>-36.84210526315821</v>
+        <v>-100</v>
       </c>
       <c r="L500" t="n">
         <v>36.82</v>
@@ -25779,7 +25795,7 @@
         <v>62.3</v>
       </c>
       <c r="K501" t="n">
-        <v>-45.45454545454569</v>
+        <v>-100</v>
       </c>
       <c r="L501" t="n">
         <v>36.75</v>
@@ -25830,7 +25846,7 @@
         <v>62.3</v>
       </c>
       <c r="K502" t="n">
-        <v>-45.45454545454569</v>
+        <v>-100</v>
       </c>
       <c r="L502" t="n">
         <v>36.68</v>
@@ -25881,7 +25897,7 @@
         <v>62.3</v>
       </c>
       <c r="K503" t="n">
-        <v>-36.84210526315798</v>
+        <v>-100</v>
       </c>
       <c r="L503" t="n">
         <v>36.61</v>
@@ -25932,7 +25948,7 @@
         <v>62.3</v>
       </c>
       <c r="K504" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L504" t="n">
         <v>36.54000000000001</v>
@@ -25983,7 +25999,7 @@
         <v>62.40000000000001</v>
       </c>
       <c r="K505" t="n">
-        <v>-44.44444444444471</v>
+        <v>-100</v>
       </c>
       <c r="L505" t="n">
         <v>36.46000000000001</v>
@@ -26034,7 +26050,7 @@
         <v>62.40000000000001</v>
       </c>
       <c r="K506" t="n">
-        <v>-41.17647058823549</v>
+        <v>-100</v>
       </c>
       <c r="L506" t="n">
         <v>36.39000000000001</v>
@@ -26085,7 +26101,7 @@
         <v>62.50000000000001</v>
       </c>
       <c r="K507" t="n">
-        <v>-41.17647058823549</v>
+        <v>-74.99999999999956</v>
       </c>
       <c r="L507" t="n">
         <v>36.33000000000001</v>
@@ -26136,7 +26152,7 @@
         <v>62.60000000000001</v>
       </c>
       <c r="K508" t="n">
-        <v>-37.50000000000039</v>
+        <v>-77.77777777777743</v>
       </c>
       <c r="L508" t="n">
         <v>36.26000000000001</v>
@@ -26187,7 +26203,7 @@
         <v>62.60000000000001</v>
       </c>
       <c r="K509" t="n">
-        <v>-57.14285714285728</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L509" t="n">
         <v>36.19000000000001</v>
@@ -26238,7 +26254,7 @@
         <v>62.70000000000001</v>
       </c>
       <c r="K510" t="n">
-        <v>-38.46153846153855</v>
+        <v>0</v>
       </c>
       <c r="L510" t="n">
         <v>36.16000000000001</v>
@@ -26289,7 +26305,7 @@
         <v>62.70000000000001</v>
       </c>
       <c r="K511" t="n">
-        <v>-63.63636363636317</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>36.16000000000001</v>
@@ -26340,7 +26356,7 @@
         <v>62.70000000000001</v>
       </c>
       <c r="K512" t="n">
-        <v>-63.63636363636317</v>
+        <v>0</v>
       </c>
       <c r="L512" t="n">
         <v>36.16000000000001</v>
@@ -26391,7 +26407,7 @@
         <v>62.8</v>
       </c>
       <c r="K513" t="n">
-        <v>-50.0000000000003</v>
+        <v>19.99999999999886</v>
       </c>
       <c r="L513" t="n">
         <v>36.17000000000001</v>
@@ -26442,7 +26458,7 @@
         <v>62.8</v>
       </c>
       <c r="K514" t="n">
-        <v>-50.0000000000003</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L514" t="n">
         <v>36.18000000000001</v>
@@ -26493,7 +26509,7 @@
         <v>62.8</v>
       </c>
       <c r="K515" t="n">
-        <v>-50.0000000000003</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L515" t="n">
         <v>36.20000000000001</v>
@@ -26544,7 +26560,7 @@
         <v>62.9</v>
       </c>
       <c r="K516" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L516" t="n">
         <v>36.21000000000001</v>
@@ -26595,7 +26611,7 @@
         <v>62.99999999999999</v>
       </c>
       <c r="K517" t="n">
-        <v>-38.46153846153897</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L517" t="n">
         <v>36.22000000000001</v>
@@ -26646,7 +26662,7 @@
         <v>62.99999999999999</v>
       </c>
       <c r="K518" t="n">
-        <v>-38.46153846153897</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L518" t="n">
         <v>36.24000000000001</v>
@@ -26697,7 +26713,7 @@
         <v>62.99999999999999</v>
       </c>
       <c r="K519" t="n">
-        <v>-38.46153846153897</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L519" t="n">
         <v>36.26000000000001</v>
@@ -26748,7 +26764,7 @@
         <v>62.99999999999999</v>
       </c>
       <c r="K520" t="n">
-        <v>-20.00000000000057</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L520" t="n">
         <v>36.27000000000001</v>
@@ -26799,7 +26815,7 @@
         <v>62.99999999999999</v>
       </c>
       <c r="K521" t="n">
-        <v>14.28571428571371</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L521" t="n">
         <v>36.28000000000002</v>
@@ -26850,7 +26866,7 @@
         <v>63.3</v>
       </c>
       <c r="K522" t="n">
-        <v>40.00000000000014</v>
+        <v>60.00000000000171</v>
       </c>
       <c r="L522" t="n">
         <v>36.32000000000001</v>
@@ -26901,7 +26917,7 @@
         <v>63.5</v>
       </c>
       <c r="K523" t="n">
-        <v>16.66666666666637</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L523" t="n">
         <v>36.33000000000001</v>
@@ -26952,7 +26968,7 @@
         <v>63.5</v>
       </c>
       <c r="K524" t="n">
-        <v>16.66666666666637</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L524" t="n">
         <v>36.34000000000001</v>
@@ -27003,7 +27019,7 @@
         <v>63.7</v>
       </c>
       <c r="K525" t="n">
-        <v>38.46153846153855</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L525" t="n">
         <v>36.37000000000001</v>
@@ -27054,7 +27070,7 @@
         <v>63.8</v>
       </c>
       <c r="K526" t="n">
-        <v>28.5714285714285</v>
+        <v>25</v>
       </c>
       <c r="L526" t="n">
         <v>36.40000000000001</v>
@@ -27105,7 +27121,7 @@
         <v>63.8</v>
       </c>
       <c r="K527" t="n">
-        <v>23.07692307692291</v>
+        <v>25</v>
       </c>
       <c r="L527" t="n">
         <v>36.42000000000001</v>
@@ -27156,7 +27172,7 @@
         <v>63.8</v>
       </c>
       <c r="K528" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L528" t="n">
         <v>36.44000000000001</v>
@@ -27207,7 +27223,7 @@
         <v>63.90000000000001</v>
       </c>
       <c r="K529" t="n">
-        <v>38.46153846153855</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L529" t="n">
         <v>36.47000000000001</v>
@@ -27258,7 +27274,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="K530" t="n">
-        <v>42.85714285714293</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L530" t="n">
         <v>36.52000000000001</v>
@@ -27309,7 +27325,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="K531" t="n">
-        <v>42.85714285714293</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L531" t="n">
         <v>36.57000000000001</v>
@@ -27360,7 +27376,7 @@
         <v>64.19999999999999</v>
       </c>
       <c r="K532" t="n">
-        <v>46.66666666666705</v>
+        <v>71.42857142857258</v>
       </c>
       <c r="L532" t="n">
         <v>36.60000000000001</v>
@@ -27411,7 +27427,7 @@
         <v>64.29999999999998</v>
       </c>
       <c r="K533" t="n">
-        <v>33.33333333333381</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L533" t="n">
         <v>36.64000000000001</v>
@@ -27462,7 +27478,7 @@
         <v>64.29999999999998</v>
       </c>
       <c r="K534" t="n">
-        <v>33.33333333333381</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L534" t="n">
         <v>36.68000000000001</v>
@@ -27513,7 +27529,7 @@
         <v>64.39999999999998</v>
       </c>
       <c r="K535" t="n">
-        <v>37.50000000000072</v>
+        <v>66.66666666666943</v>
       </c>
       <c r="L535" t="n">
         <v>36.71000000000001</v>
@@ -27564,7 +27580,7 @@
         <v>64.39999999999998</v>
       </c>
       <c r="K536" t="n">
-        <v>46.66666666666705</v>
+        <v>66.66666666666943</v>
       </c>
       <c r="L536" t="n">
         <v>36.75000000000001</v>
@@ -27615,7 +27631,7 @@
         <v>64.49999999999997</v>
       </c>
       <c r="K537" t="n">
-        <v>33.33333333333381</v>
+        <v>42.85714285714445</v>
       </c>
       <c r="L537" t="n">
         <v>36.78000000000001</v>
@@ -27666,7 +27682,7 @@
         <v>64.79999999999997</v>
       </c>
       <c r="K538" t="n">
-        <v>11.11111111111142</v>
+        <v>-11.11111111111173</v>
       </c>
       <c r="L538" t="n">
         <v>36.78000000000001</v>
@@ -27717,7 +27733,7 @@
         <v>65.09999999999997</v>
       </c>
       <c r="K539" t="n">
-        <v>23.80952380952412</v>
+        <v>0</v>
       </c>
       <c r="L539" t="n">
         <v>36.8</v>
@@ -27768,7 +27784,7 @@
         <v>65.39999999999996</v>
       </c>
       <c r="K540" t="n">
-        <v>8.333333333333554</v>
+        <v>-23.07692307692341</v>
       </c>
       <c r="L540" t="n">
         <v>36.77</v>
@@ -27819,7 +27835,7 @@
         <v>65.39999999999996</v>
       </c>
       <c r="K541" t="n">
-        <v>8.333333333333554</v>
+        <v>-33.33333333333393</v>
       </c>
       <c r="L541" t="n">
         <v>36.74</v>
@@ -27870,7 +27886,7 @@
         <v>65.49999999999997</v>
       </c>
       <c r="K542" t="n">
-        <v>0</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L542" t="n">
         <v>36.71000000000001</v>
@@ -27921,7 +27937,7 @@
         <v>65.49999999999997</v>
       </c>
       <c r="K543" t="n">
-        <v>10.00000000000028</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L543" t="n">
         <v>36.69000000000001</v>
@@ -27972,7 +27988,7 @@
         <v>65.59999999999997</v>
       </c>
       <c r="K544" t="n">
-        <v>14.28571428571472</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L544" t="n">
         <v>36.68000000000001</v>
@@ -28023,7 +28039,7 @@
         <v>65.59999999999997</v>
       </c>
       <c r="K545" t="n">
-        <v>5.263157894737019</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L545" t="n">
         <v>36.66000000000001</v>
@@ -28074,7 +28090,7 @@
         <v>65.69999999999996</v>
       </c>
       <c r="K546" t="n">
-        <v>5.263157894737039</v>
+        <v>-16.66666666666647</v>
       </c>
       <c r="L546" t="n">
         <v>36.63000000000001</v>
@@ -28125,7 +28141,7 @@
         <v>65.69999999999996</v>
       </c>
       <c r="K547" t="n">
-        <v>5.263157894737039</v>
+        <v>11.11111111111137</v>
       </c>
       <c r="L547" t="n">
         <v>36.61000000000001</v>
@@ -28176,7 +28192,7 @@
         <v>65.79999999999995</v>
       </c>
       <c r="K548" t="n">
-        <v>10.00000000000039</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L548" t="n">
         <v>36.63000000000001</v>
@@ -28227,7 +28243,7 @@
         <v>65.89999999999995</v>
       </c>
       <c r="K549" t="n">
-        <v>0</v>
+        <v>20.00000000000085</v>
       </c>
       <c r="L549" t="n">
         <v>36.61000000000001</v>
@@ -28278,7 +28294,7 @@
         <v>66.09999999999994</v>
       </c>
       <c r="K550" t="n">
-        <v>0</v>
+        <v>42.85714285714401</v>
       </c>
       <c r="L550" t="n">
         <v>36.64000000000001</v>
@@ -28329,7 +28345,7 @@
         <v>66.09999999999994</v>
       </c>
       <c r="K551" t="n">
-        <v>0</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L551" t="n">
         <v>36.67000000000002</v>
@@ -28380,7 +28396,7 @@
         <v>66.09999999999994</v>
       </c>
       <c r="K552" t="n">
-        <v>-5.263157894737058</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L552" t="n">
         <v>36.69000000000001</v>
@@ -28431,7 +28447,7 @@
         <v>66.19999999999993</v>
       </c>
       <c r="K553" t="n">
-        <v>-5.263157894736684</v>
+        <v>0</v>
       </c>
       <c r="L553" t="n">
         <v>36.70000000000001</v>
@@ -28482,7 +28498,7 @@
         <v>66.29999999999993</v>
       </c>
       <c r="K554" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L554" t="n">
         <v>36.71000000000002</v>
@@ -28533,7 +28549,7 @@
         <v>66.29999999999993</v>
       </c>
       <c r="K555" t="n">
-        <v>-5.263157894737058</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L555" t="n">
         <v>36.72000000000001</v>
@@ -28584,7 +28600,7 @@
         <v>66.49999999999991</v>
       </c>
       <c r="K556" t="n">
-        <v>-14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L556" t="n">
         <v>36.72000000000001</v>
@@ -28635,7 +28651,7 @@
         <v>66.6999999999999</v>
       </c>
       <c r="K557" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L557" t="n">
         <v>36.74000000000002</v>
@@ -28686,7 +28702,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K558" t="n">
-        <v>4.761904761905003</v>
+        <v>0</v>
       </c>
       <c r="L558" t="n">
         <v>36.73000000000002</v>
@@ -28737,7 +28753,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K559" t="n">
-        <v>-11.11111111111133</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L559" t="n">
         <v>36.73000000000002</v>
@@ -28788,7 +28804,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K560" t="n">
-        <v>6.666666666667077</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L560" t="n">
         <v>36.71000000000002</v>
@@ -28839,7 +28855,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K561" t="n">
-        <v>6.666666666667077</v>
+        <v>-25.00000000000089</v>
       </c>
       <c r="L561" t="n">
         <v>36.69000000000002</v>
@@ -28890,7 +28906,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>-14.2857142857153</v>
       </c>
       <c r="L562" t="n">
         <v>36.67000000000002</v>
@@ -28941,7 +28957,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K563" t="n">
-        <v>0</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L563" t="n">
         <v>36.66000000000003</v>
@@ -28992,7 +29008,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K564" t="n">
-        <v>-7.69230769230824</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L564" t="n">
         <v>36.64000000000003</v>
@@ -29043,7 +29059,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K565" t="n">
-        <v>-7.69230769230824</v>
+        <v>0</v>
       </c>
       <c r="L565" t="n">
         <v>36.62000000000003</v>
@@ -29094,7 +29110,7 @@
         <v>66.89999999999989</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>-100.0000000000036</v>
       </c>
       <c r="L566" t="n">
         <v>36.62000000000003</v>
@@ -29145,7 +29161,7 @@
         <v>67.09999999999988</v>
       </c>
       <c r="K567" t="n">
-        <v>14.28571428571479</v>
+        <v>100.0000000000036</v>
       </c>
       <c r="L567" t="n">
         <v>36.62000000000003</v>
@@ -29196,7 +29212,7 @@
         <v>67.29999999999987</v>
       </c>
       <c r="K568" t="n">
-        <v>-6.666666666667139</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>36.62000000000003</v>
@@ -29247,7 +29263,7 @@
         <v>67.49999999999986</v>
       </c>
       <c r="K569" t="n">
-        <v>12.50000000000044</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L569" t="n">
         <v>36.64000000000003</v>
@@ -29298,7 +29314,7 @@
         <v>67.69999999999985</v>
       </c>
       <c r="K570" t="n">
-        <v>-12.50000000000044</v>
+        <v>0</v>
       </c>
       <c r="L570" t="n">
         <v>36.64000000000003</v>
@@ -29349,7 +29365,7 @@
         <v>67.89999999999984</v>
       </c>
       <c r="K571" t="n">
-        <v>0</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L571" t="n">
         <v>36.66000000000003</v>
@@ -29400,7 +29416,7 @@
         <v>68.09999999999982</v>
       </c>
       <c r="K572" t="n">
-        <v>-10.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>36.66000000000003</v>
@@ -29451,7 +29467,7 @@
         <v>68.09999999999982</v>
       </c>
       <c r="K573" t="n">
-        <v>-5.263157894737216</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>36.66000000000003</v>
@@ -29502,7 +29518,7 @@
         <v>68.29999999999981</v>
       </c>
       <c r="K574" t="n">
-        <v>0</v>
+        <v>14.28571428571479</v>
       </c>
       <c r="L574" t="n">
         <v>36.68000000000002</v>
@@ -29553,7 +29569,7 @@
         <v>68.29999999999981</v>
       </c>
       <c r="K575" t="n">
-        <v>0</v>
+        <v>14.28571428571479</v>
       </c>
       <c r="L575" t="n">
         <v>36.70000000000002</v>
@@ -29604,7 +29620,7 @@
         <v>68.4999999999998</v>
       </c>
       <c r="K576" t="n">
-        <v>0</v>
+        <v>-14.28571428571479</v>
       </c>
       <c r="L576" t="n">
         <v>36.70000000000002</v>
@@ -29655,7 +29671,7 @@
         <v>68.4999999999998</v>
       </c>
       <c r="K577" t="n">
-        <v>-11.11111111111151</v>
+        <v>0</v>
       </c>
       <c r="L577" t="n">
         <v>36.68000000000002</v>
@@ -29706,7 +29722,7 @@
         <v>68.4999999999998</v>
       </c>
       <c r="K578" t="n">
-        <v>0</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L578" t="n">
         <v>36.68000000000002</v>
@@ -29757,7 +29773,7 @@
         <v>68.5999999999998</v>
       </c>
       <c r="K579" t="n">
-        <v>5.882352941176888</v>
+        <v>11.1111111111119</v>
       </c>
       <c r="L579" t="n">
         <v>36.67000000000002</v>
@@ -29808,7 +29824,7 @@
         <v>68.5999999999998</v>
       </c>
       <c r="K580" t="n">
-        <v>5.882352941176888</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L580" t="n">
         <v>36.68000000000002</v>
@@ -29859,7 +29875,7 @@
         <v>68.5999999999998</v>
       </c>
       <c r="K581" t="n">
-        <v>5.882352941176888</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L581" t="n">
         <v>36.67000000000002</v>
@@ -29961,7 +29977,7 @@
         <v>68.89999999999978</v>
       </c>
       <c r="K583" t="n">
-        <v>10.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L583" t="n">
         <v>36.69000000000001</v>
@@ -30012,7 +30028,7 @@
         <v>68.89999999999978</v>
       </c>
       <c r="K584" t="n">
-        <v>10.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>36.69000000000001</v>
@@ -30063,7 +30079,7 @@
         <v>68.89999999999978</v>
       </c>
       <c r="K585" t="n">
-        <v>10.00000000000036</v>
+        <v>50.00000000000178</v>
       </c>
       <c r="L585" t="n">
         <v>36.69000000000001</v>
@@ -30114,7 +30130,7 @@
         <v>68.99999999999977</v>
       </c>
       <c r="K586" t="n">
-        <v>4.7619047619051</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L586" t="n">
         <v>36.70000000000001</v>
@@ -30165,7 +30181,7 @@
         <v>69.09999999999977</v>
       </c>
       <c r="K587" t="n">
-        <v>0</v>
+        <v>33.33333333333452</v>
       </c>
       <c r="L587" t="n">
         <v>36.72000000000001</v>
@@ -30216,7 +30232,7 @@
         <v>69.19999999999976</v>
       </c>
       <c r="K588" t="n">
-        <v>5.263157894737216</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>36.73</v>
@@ -30267,7 +30283,7 @@
         <v>69.19999999999976</v>
       </c>
       <c r="K589" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>36.73</v>
@@ -30318,7 +30334,7 @@
         <v>69.29999999999976</v>
       </c>
       <c r="K590" t="n">
-        <v>12.50000000000044</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L590" t="n">
         <v>36.74000000000001</v>
@@ -30369,7 +30385,7 @@
         <v>69.39999999999975</v>
       </c>
       <c r="K591" t="n">
-        <v>-6.666666666666667</v>
+        <v>14.2857142857153</v>
       </c>
       <c r="L591" t="n">
         <v>36.74000000000001</v>
@@ -30420,7 +30436,7 @@
         <v>69.49999999999974</v>
       </c>
       <c r="K592" t="n">
-        <v>14.28571428571479</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>36.76000000000001</v>
@@ -30471,7 +30487,7 @@
         <v>69.49999999999974</v>
       </c>
       <c r="K593" t="n">
-        <v>14.28571428571479</v>
+        <v>0</v>
       </c>
       <c r="L593" t="n">
         <v>36.76000000000001</v>
@@ -30573,7 +30589,7 @@
         <v>69.49999999999974</v>
       </c>
       <c r="K595" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L595" t="n">
         <v>36.76000000000001</v>
@@ -30624,7 +30640,7 @@
         <v>69.69999999999973</v>
       </c>
       <c r="K596" t="n">
-        <v>0</v>
+        <v>-33.33333333333452</v>
       </c>
       <c r="L596" t="n">
         <v>36.75000000000001</v>
@@ -30675,7 +30691,7 @@
         <v>69.89999999999974</v>
       </c>
       <c r="K597" t="n">
-        <v>-14.28571428571516</v>
+        <v>-42.85714285714503</v>
       </c>
       <c r="L597" t="n">
         <v>36.71000000000001</v>
@@ -30726,7 +30742,7 @@
         <v>69.89999999999974</v>
       </c>
       <c r="K598" t="n">
-        <v>-14.28571428571516</v>
+        <v>-42.85714285714503</v>
       </c>
       <c r="L598" t="n">
         <v>36.68000000000001</v>
@@ -30777,7 +30793,7 @@
         <v>69.99999999999974</v>
       </c>
       <c r="K599" t="n">
-        <v>-28.57142857143003</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L599" t="n">
         <v>36.64000000000001</v>

--- a/BackTest/2019-10-08 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-08 BackTest HDAC.xlsx
@@ -1781,14 +1781,20 @@
         <v>36.6583333333334</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>36</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1822,12 +1828,12 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1904,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
@@ -2068,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
@@ -2103,14 +2109,12 @@
         <v>36.5083333333334</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>35.8</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
@@ -2144,14 +2148,12 @@
         <v>36.48666666666672</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>35.9</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
@@ -2185,14 +2187,12 @@
         <v>36.46666666666672</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>35.7</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
@@ -2226,14 +2226,12 @@
         <v>36.44666666666672</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
@@ -2267,14 +2265,12 @@
         <v>36.43166666666671</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>35.7</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
@@ -2308,14 +2304,12 @@
         <v>36.41666666666671</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>35.9</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
@@ -2349,14 +2343,12 @@
         <v>36.40166666666671</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>36</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -2396,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
@@ -2437,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>35.6</v>
+        <v>36</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
@@ -2472,14 +2464,12 @@
         <v>36.33833333333337</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
@@ -2683,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>35.7</v>
+        <v>35.9</v>
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
@@ -2718,14 +2708,12 @@
         <v>36.2116666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>35.9</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2800,14 +2788,12 @@
         <v>36.17500000000004</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>35.9</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2841,14 +2827,12 @@
         <v>36.15833333333337</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>35.9</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2882,14 +2866,12 @@
         <v>36.14833333333338</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>36</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2923,14 +2905,12 @@
         <v>36.13833333333337</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>36.2</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
@@ -2964,14 +2944,12 @@
         <v>36.14000000000004</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
@@ -3005,14 +2983,12 @@
         <v>36.13333333333337</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>36.4</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
@@ -5506,16 +5482,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5547,10 +5525,12 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5578,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5613,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5648,7 +5628,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>

--- a/BackTest/2019-10-08 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-08 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1067240.13334821</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1618836.12404821</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>37.6</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>2504757.51048127</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37.9</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>2504757.51048127</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>38</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>2531320.54818127</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>38</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -618,9 +642,15 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>38.5</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -651,9 +681,15 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>38.2</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>2001825.42055146</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>37.9</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>2001128.22665146</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>37.8</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>2001128.22665146</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37.3</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>2035411.05185146</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>37.3</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +878,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +915,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +952,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +989,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1026,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1063,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1100,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1137,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1174,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1211,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1248,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1281,15 @@
         <v>1826914.0260634</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1322,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1359,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1392,15 @@
         <v>2145249.0433634</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1429,15 @@
         <v>2125583.3679634</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1470,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1507,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1540,15 @@
         <v>2089281.5206634</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1577,15 @@
         <v>2089281.5206634</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1618,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1655,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1692,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1729,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1766,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1803,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1840,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1877,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1914,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1951,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1988,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2021,15 @@
         <v>2184404.1227634</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2062,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2099,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,14 +2132,16 @@
         <v>2163445.1011634</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1969,7 +2167,7 @@
         <v>2169728.8875634</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2200,7 @@
         <v>2169728.8875634</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -6754,7 +6952,7 @@
         <v>2974875.2446838</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6985,7 @@
         <v>2973155.2446838</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +7018,7 @@
         <v>2846746.8151838</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +7051,7 @@
         <v>2841944.5740987</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +7084,7 @@
         <v>2841944.5740987</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +7117,7 @@
         <v>2863002.3421987</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7051,7 +7249,7 @@
         <v>2853106.0147136</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7282,7 @@
         <v>2805494.2508136</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7315,7 @@
         <v>2805494.2508136</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7348,7 @@
         <v>2779353.9877136</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7381,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7414,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7447,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7480,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7513,7 @@
         <v>2630069.9153434</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7546,7 @@
         <v>2630069.9153434</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7579,7 @@
         <v>2672079.8363434</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7612,7 @@
         <v>2754243.10616414</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7645,7 @@
         <v>2918334.37246414</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7678,7 @@
         <v>2916291.38006414</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7711,7 @@
         <v>2638595.76026414</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7744,7 @@
         <v>2734070.27866414</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7777,7 @@
         <v>2734527.69246414</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7810,7 @@
         <v>2836211.88216414</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7843,7 @@
         <v>2824370.80056414</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7876,7 @@
         <v>2824390.80056414</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7909,7 @@
         <v>2808179.44646414</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8338,7 +8536,7 @@
         <v>2550058.45356414</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8569,7 @@
         <v>2525762.13366414</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8602,7 @@
         <v>2525762.13366414</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8701,7 +8899,7 @@
         <v>2535648.40156414</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8932,7 @@
         <v>2517221.08286414</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8965,7 @@
         <v>2586658.11716414</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8998,7 @@
         <v>2619723.91366414</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9031,7 @@
         <v>2619723.91366414</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9064,7 @@
         <v>2598533.09776414</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +9097,7 @@
         <v>2514289.24496414</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +9130,7 @@
         <v>2489614.89496414</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9163,7 @@
         <v>2489975.88706414</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9196,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9229,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9196,7 +9394,7 @@
         <v>2762226.44406414</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9295,7 +9493,7 @@
         <v>2303578.57056414</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9526,7 @@
         <v>2316718.38766414</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9427,7 +9625,7 @@
         <v>2346755.13016414</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9658,7 @@
         <v>2346755.13016414</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9691,7 @@
         <v>2346785.13016414</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9724,7 @@
         <v>2346276.06446414</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9757,7 @@
         <v>2346276.06446414</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9790,7 @@
         <v>2346276.06446414</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9823,7 @@
         <v>2304516.10746414</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9856,7 @@
         <v>2268899.70336414</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9889,7 @@
         <v>2281871.41796414</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9922,7 @@
         <v>2281871.41796414</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9955,7 @@
         <v>2282000.41796414</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9988,7 @@
         <v>2281990.41796414</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +10021,7 @@
         <v>2282409.59996414</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +10054,7 @@
         <v>2282409.59996414</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9922,7 +10120,7 @@
         <v>2286917.09996414</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +10153,7 @@
         <v>2217633.594164141</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +10186,7 @@
         <v>2199055.82126414</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10219,7 @@
         <v>2199065.82126414</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10351,7 +10549,7 @@
         <v>2120106.83266414</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10582,7 @@
         <v>2111106.83266414</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10615,7 @@
         <v>2111848.24796414</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10648,7 @@
         <v>2076658.2530477</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10681,7 @@
         <v>2063059.6895477</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10714,7 @@
         <v>2063059.6895477</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10747,7 @@
         <v>2064386.6981477</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10780,7 @@
         <v>1483246.0476477</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10813,7 @@
         <v>1488199.8813477</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10846,7 @@
         <v>1460713.0942477</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10879,7 @@
         <v>1460713.0942477</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10912,7 @@
         <v>1460612.26780142</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10945,7 @@
         <v>1574941.54788383</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10978,7 @@
         <v>1574941.54788383</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +11011,7 @@
         <v>1573736.77868383</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +11044,7 @@
         <v>1399685.29168383</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +11077,7 @@
         <v>1400337.15728383</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -20647,11 +20845,17 @@
         <v>898582.8370534612</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20680,11 +20884,17 @@
         <v>898241.0756534613</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20713,11 +20923,17 @@
         <v>918241.0756534613</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20746,11 +20962,17 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>36.8</v>
+      </c>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +21001,17 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +21040,17 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +21079,17 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21118,17 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>36.6</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +21161,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20948,7 +21198,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -20981,7 +21235,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21014,7 +21272,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21047,7 +21309,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21080,7 +21346,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21113,7 +21383,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21146,7 +21420,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21179,7 +21457,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21212,7 +21494,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21245,7 +21531,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21278,7 +21568,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21311,7 +21605,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21344,7 +21642,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21377,7 +21679,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21410,7 +21716,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21443,7 +21753,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21476,7 +21790,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21509,7 +21827,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21542,7 +21864,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21575,7 +21901,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21608,7 +21938,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21641,7 +21975,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21674,7 +22012,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21707,7 +22049,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21740,13 +22086,17 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
       <c r="M647" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-08 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-08 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>1618836.12404821</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>37.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>2504757.51048127</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>37.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>2504757.51048127</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>2531320.54818127</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>2488161.88198127</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>38.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>2018780.34655146</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>38.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>2001825.42055146</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>37.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>2001128.22665146</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>37.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>2001128.22665146</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>2035411.05185146</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>37.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -878,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -915,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -989,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1026,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1063,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1100,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1137,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1174,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1211,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1248,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1285,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1322,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1359,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1396,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1433,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1470,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1544,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1581,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1618,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1651,15 +1507,11 @@
         <v>2344350.6444634</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1688,15 +1540,11 @@
         <v>2220635.8453634</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1725,15 +1573,11 @@
         <v>2220645.8453634</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1762,15 +1606,11 @@
         <v>2185924.0571634</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1803,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1840,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1877,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1914,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1951,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1988,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2062,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2099,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2132,16 +1936,14 @@
         <v>2163445.1011634</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2167,7 +1969,7 @@
         <v>2169728.8875634</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2002,7 @@
         <v>2169728.8875634</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -7381,7 +7183,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7414,7 +7216,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7447,7 +7249,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7480,7 +7282,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7513,7 +7315,7 @@
         <v>2630069.9153434</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7546,7 +7348,7 @@
         <v>2630069.9153434</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7579,7 +7381,7 @@
         <v>2672079.8363434</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7612,7 +7414,7 @@
         <v>2754243.10616414</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7645,7 +7447,7 @@
         <v>2918334.37246414</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7678,7 +7480,7 @@
         <v>2916291.38006414</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7711,7 +7513,7 @@
         <v>2638595.76026414</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7744,7 +7546,7 @@
         <v>2734070.27866414</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7777,7 +7579,7 @@
         <v>2734527.69246414</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7810,7 +7612,7 @@
         <v>2836211.88216414</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7843,7 +7645,7 @@
         <v>2824370.80056414</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7876,7 +7678,7 @@
         <v>2824390.80056414</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7909,7 +7711,7 @@
         <v>2808179.44646414</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8536,7 +8338,7 @@
         <v>2550058.45356414</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8569,7 +8371,7 @@
         <v>2525762.13366414</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8602,7 +8404,7 @@
         <v>2525762.13366414</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8899,7 +8701,7 @@
         <v>2535648.40156414</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8932,7 +8734,7 @@
         <v>2517221.08286414</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8965,7 +8767,7 @@
         <v>2586658.11716414</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8998,7 +8800,7 @@
         <v>2619723.91366414</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9031,7 +8833,7 @@
         <v>2619723.91366414</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9064,7 +8866,7 @@
         <v>2598533.09776414</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9097,7 +8899,7 @@
         <v>2514289.24496414</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9130,7 +8932,7 @@
         <v>2489614.89496414</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9163,7 +8965,7 @@
         <v>2489975.88706414</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9196,7 +8998,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9229,7 +9031,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9394,7 +9196,7 @@
         <v>2762226.44406414</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9493,7 +9295,7 @@
         <v>2303578.57056414</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9526,7 +9328,7 @@
         <v>2316718.38766414</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9625,7 +9427,7 @@
         <v>2346755.13016414</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9658,7 +9460,7 @@
         <v>2346755.13016414</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9691,7 +9493,7 @@
         <v>2346785.13016414</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9724,7 +9526,7 @@
         <v>2346276.06446414</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9757,7 +9559,7 @@
         <v>2346276.06446414</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9790,7 +9592,7 @@
         <v>2346276.06446414</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9823,7 +9625,7 @@
         <v>2304516.10746414</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9856,7 +9658,7 @@
         <v>2268899.70336414</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9889,7 +9691,7 @@
         <v>2281871.41796414</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9922,7 +9724,7 @@
         <v>2281871.41796414</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9955,7 +9757,7 @@
         <v>2282000.41796414</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9988,7 +9790,7 @@
         <v>2281990.41796414</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10021,7 +9823,7 @@
         <v>2282409.59996414</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10054,7 +9856,7 @@
         <v>2282409.59996414</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10120,7 +9922,7 @@
         <v>2286917.09996414</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10153,7 +9955,7 @@
         <v>2217633.594164141</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10186,7 +9988,7 @@
         <v>2199055.82126414</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10219,7 +10021,7 @@
         <v>2199065.82126414</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10549,7 +10351,7 @@
         <v>2120106.83266414</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10582,7 +10384,7 @@
         <v>2111106.83266414</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10615,7 +10417,7 @@
         <v>2111848.24796414</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10648,7 +10450,7 @@
         <v>2076658.2530477</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10681,7 +10483,7 @@
         <v>2063059.6895477</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10714,7 +10516,7 @@
         <v>2063059.6895477</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10747,7 +10549,7 @@
         <v>2064386.6981477</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10780,7 +10582,7 @@
         <v>1483246.0476477</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10813,7 +10615,7 @@
         <v>1488199.8813477</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10846,7 +10648,7 @@
         <v>1460713.0942477</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10879,7 +10681,7 @@
         <v>1460713.0942477</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10912,7 +10714,7 @@
         <v>1460612.26780142</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10945,7 +10747,7 @@
         <v>1574941.54788383</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10978,7 +10780,7 @@
         <v>1574941.54788383</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11011,7 +10813,7 @@
         <v>1573736.77868383</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11044,7 +10846,7 @@
         <v>1399685.29168383</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11077,7 +10879,7 @@
         <v>1400337.15728383</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -20845,17 +20647,11 @@
         <v>898582.8370534612</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20884,17 +20680,11 @@
         <v>898241.0756534613</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20923,17 +20713,11 @@
         <v>918241.0756534613</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20962,17 +20746,11 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>36.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21001,17 +20779,11 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21040,17 +20812,11 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21079,17 +20845,11 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21118,17 +20878,11 @@
         <v>918223.0756534613</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>36.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21161,11 +20915,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21198,11 +20948,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21235,11 +20981,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21272,11 +21014,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21309,11 +21047,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21346,11 +21080,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21383,11 +21113,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21420,11 +21146,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21457,11 +21179,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21494,11 +21212,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21531,11 +21245,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21568,11 +21278,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21605,11 +21311,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21642,11 +21344,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21679,11 +21377,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21716,11 +21410,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21753,11 +21443,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21790,11 +21476,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21827,11 +21509,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21864,11 +21542,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21901,11 +21575,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21938,11 +21608,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -21975,11 +21641,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22012,11 +21674,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22045,15 +21703,15 @@
         <v>904975.0756534613</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="J646" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22085,10 +21743,12 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>36.7</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L647" t="n">
@@ -22097,6 +21757,6 @@
       <c r="M647" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-08 BackTest HDAC.xlsx
+++ b/BackTest/2019-10-08 BackTest HDAC.xlsx
@@ -484,7 +484,7 @@
         <v>1618836.12404821</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2504757.51048127</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2488161.88198127</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2018780.34655146</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2001825.42055146</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2001128.22665146</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2085977.484951461</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2085977.484951461</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2045302.45935146</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2066674.188451461</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2031495.43400743</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2061766.689463401</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2061766.689463401</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2037032.3919634</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2344350.6444634</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2220635.8453634</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2220645.8453634</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2185924.0571634</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>3059499.6787136</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>2853106.0147136</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>2853106.0147136</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>2805494.2508136</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>2805494.2508136</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>2779353.9877136</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>2779179.8055136</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2600625.9945285</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2672079.8363434</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>2754243.10616414</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>2918334.37246414</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>2916291.38006414</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>2638595.76026414</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>2734070.27866414</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>2734527.69246414</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>2836211.88216414</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>2824370.80056414</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>2824390.80056414</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>2808179.44646414</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>2806989.68146414</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>2806989.68146414</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>2791979.68146414</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>2801221.08936414</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>2807420.00196414</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>2772796.11946414</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>2828710.10586414</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>2824248.52576414</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>2549352.96546414</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>2549352.96546414</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>2550058.45356414</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>2619723.91366414</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2598533.09776414</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>2514289.24496414</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>2489965.88706414</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>2647204.15926414</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>2567406.73526414</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>2762176.44406414</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>2762176.44406414</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>2762226.44406414</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2441586.78446414</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>2356598.44766414</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -21703,14 +21703,10 @@
         <v>904975.0756534613</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J646" t="n">
-        <v>36.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
@@ -21743,14 +21739,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
